--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F20FD8-532C-42B1-9FF9-2B84D458D290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBCCCEC-11B8-49AB-914B-0484CB82ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grupo" sheetId="1" r:id="rId1"/>

--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBCCCEC-11B8-49AB-914B-0484CB82ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDF190-5D84-425B-B479-374D2439B564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grupo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grupo!$A$1:$J$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grupo!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>CODIGO</t>
   </si>
@@ -222,6 +222,39 @@
   </si>
   <si>
     <t>samuel.rivera@uao.edu.co</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Número de Tareas asignadas en Cronograma</t>
+  </si>
+  <si>
+    <t>Tareas Cumplidas</t>
+  </si>
+  <si>
+    <t>QT</t>
+  </si>
+  <si>
+    <t>Calidad de las tareas</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor de Cumplimirnto del cronograma </t>
+  </si>
+  <si>
+    <t>Nota 1</t>
+  </si>
+  <si>
+    <t>FVL</t>
+  </si>
+  <si>
+    <t>Concepto FVL</t>
   </si>
 </sst>
 </file>
@@ -707,9 +740,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1031,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,14 +1074,20 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,8 +1118,26 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2210787</v>
       </c>
@@ -1113,11 +1168,8 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2150912</v>
       </c>
@@ -1149,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2190393</v>
       </c>
@@ -1181,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2175459</v>
       </c>
@@ -1213,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2175635</v>
       </c>
@@ -1245,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2206294</v>
       </c>
@@ -1277,7 +1329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2200006</v>
       </c>
@@ -1309,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2210078</v>
       </c>
@@ -1341,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2210166</v>
       </c>
@@ -1373,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2210274</v>
       </c>
@@ -1405,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2210261</v>
       </c>
@@ -1437,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2211617</v>
       </c>
@@ -1469,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2210940</v>
       </c>
@@ -1501,12 +1553,53 @@
         <v>3</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition ref="J1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDF190-5D84-425B-B479-374D2439B564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F536253-940A-4EA0-B023-E508E08DD19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>CODIGO</t>
   </si>
@@ -255,13 +255,22 @@
   </si>
   <si>
     <t>Concepto FVL</t>
+  </si>
+  <si>
+    <t>JUAN JOSE</t>
+  </si>
+  <si>
+    <t>GARCIA CARABALI</t>
+  </si>
+  <si>
+    <t>juan_j.garcia@uao.edu.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +401,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -694,7 +711,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -737,12 +754,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -776,6 +794,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1065,7 +1084,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,11 +1092,11 @@
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -1168,6 +1187,9 @@
       <c r="J2">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1200,6 +1222,9 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1232,6 +1257,9 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1264,66 +1292,57 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2175635</v>
+        <v>2160622</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>1002809479</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>3218247588</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6">
-        <v>3218247588</v>
+        <v>72</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2206294</v>
+        <v>2175635</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>1006098800</v>
+        <v>1002809479</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>3177431937</v>
+        <v>3218247588</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I7">
-        <v>3177431937</v>
+        <v>3218247588</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1331,31 +1350,31 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2200006</v>
+        <v>2206294</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>1004191308</v>
+        <v>1006098800</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8">
-        <v>3184301578</v>
+        <v>3177431937</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I8">
-        <v>3184301578</v>
+        <v>3177431937</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1363,31 +1382,31 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2210078</v>
+        <v>2200006</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>1126588397</v>
+        <v>1004191308</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>3117129509</v>
+        <v>3184301578</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I9">
-        <v>3117129509</v>
+        <v>3184301578</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1395,31 +1414,31 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2210166</v>
+        <v>2210078</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10">
-        <v>1109920277</v>
+        <v>1126588397</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G10">
-        <v>3133688323</v>
+        <v>3117129509</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I10">
-        <v>3133688323</v>
+        <v>3117129509</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1427,63 +1446,63 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2210274</v>
+        <v>2210166</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11">
-        <v>1007370882</v>
+        <v>1109920277</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>3045876257</v>
+        <v>3133688323</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>3045876257</v>
+        <v>3133688323</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2210261</v>
+        <v>2210274</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12">
-        <v>1004540422</v>
+        <v>1007370882</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12">
-        <v>3152372107</v>
+        <v>3045876257</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I12">
-        <v>3152372107</v>
+        <v>3045876257</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -1491,31 +1510,31 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2211617</v>
+        <v>2210261</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>1078457604</v>
+        <v>1004540422</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>3144252423</v>
+        <v>3152372107</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I13">
-        <v>3144252423</v>
+        <v>3152372107</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -1523,38 +1542,70 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2210940</v>
+        <v>2211617</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14">
-        <v>1005784498</v>
+        <v>1078457604</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G14">
-        <v>3005919525</v>
+        <v>3144252423</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I14">
-        <v>3005919525</v>
+        <v>3144252423</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2210940</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>1005784498</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>3005919525</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>3005919525</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1562,7 +1613,7 @@
       <c r="A18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1570,7 +1621,7 @@
       <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1578,7 +1629,7 @@
       <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1586,7 +1637,7 @@
       <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1594,12 +1645,19 @@
       <c r="A22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
+      <sortCondition ref="J1"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{79C9A5E6-6C04-42E3-AE58-C2C0E9A77FA0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F536253-940A-4EA0-B023-E508E08DD19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251D6AB-C8B9-457C-B3B1-74B0849ECE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="grupo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grupo!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grupo!$A$1:$P$15</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>CODIGO</t>
   </si>
@@ -86,9 +86,6 @@
     <t>diana.alvarado@uao.edu.co</t>
   </si>
   <si>
-    <t>Diseño de Dispositivo Inmobilizador de Cabeza para uso en pruebas de RMf</t>
-  </si>
-  <si>
     <t>DIAZ GARCIA</t>
   </si>
   <si>
@@ -233,21 +230,12 @@
     <t>Número de Tareas asignadas en Cronograma</t>
   </si>
   <si>
-    <t>Tareas Cumplidas</t>
-  </si>
-  <si>
     <t>QT</t>
   </si>
   <si>
-    <t>Calidad de las tareas</t>
-  </si>
-  <si>
     <t>FC</t>
   </si>
   <si>
-    <t xml:space="preserve">Factor de Cumplimirnto del cronograma </t>
-  </si>
-  <si>
     <t>Nota 1</t>
   </si>
   <si>
@@ -264,12 +252,33 @@
   </si>
   <si>
     <t>juan_j.garcia@uao.edu.co</t>
+  </si>
+  <si>
+    <t>0.7*FC+0.3*FVL</t>
+  </si>
+  <si>
+    <t>Factor de Cumplimiento  (TC/TAC)*QT</t>
+  </si>
+  <si>
+    <t>Tareas Cumplidas, verificadas por el commit y las evidencias</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Explicación</t>
+  </si>
+  <si>
+    <t>Calidad de las tareas (promedio de las notas de las tareas cumplidas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -710,6 +719,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -756,9 +835,25 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -805,7 +900,114 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -816,6 +1018,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8B87026-C25E-466C-9D89-86F01121DE90}" name="Table1" displayName="Table1" ref="A1:P15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+  <autoFilter ref="A1:P15" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
+    <sortCondition ref="A1:A15"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{D8C0283F-E472-48DA-8D10-E11966F4645C}" name="CODIGO"/>
+    <tableColumn id="2" xr3:uid="{0FADA472-622A-4DC7-A0AE-1ADC3F70BE9D}" name="APELLIDOS"/>
+    <tableColumn id="3" xr3:uid="{9445B9DA-1A63-4ED0-A859-A055A6892127}" name="NOMBRES"/>
+    <tableColumn id="4" xr3:uid="{8DCFF152-B36F-481A-BBA7-EF8617FBE42C}" name="PLAN"/>
+    <tableColumn id="5" xr3:uid="{6305DBFA-0E7F-4828-81EF-1DFDBBA567C7}" name="DOC_IDENTIDAD"/>
+    <tableColumn id="6" xr3:uid="{9133F657-96DF-4D1D-A279-1F39E46D33C8}" name="CIUDAD"/>
+    <tableColumn id="7" xr3:uid="{06BE4900-2E64-4235-9B99-0BFD16142580}" name="CELULAR"/>
+    <tableColumn id="8" xr3:uid="{024BBB23-E577-435F-9E3E-13C1C0190FF9}" name="CORREO_UAO"/>
+    <tableColumn id="9" xr3:uid="{91D225F0-3B16-4782-9080-DC8C72FF3428}" name="TEL_OFI"/>
+    <tableColumn id="10" xr3:uid="{B4A98B5C-8718-4217-BF4E-055FE54C3699}" name="Grupo" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{6D057658-905C-41AB-9151-B77391AC67A4}" name="TAC" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{414EEDA8-9EE3-4469-9C98-EA2D5D3410B7}" name="TC" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{5F26FEA4-C7EC-45AF-8744-1B6AB6BDC555}" name="QT" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{C896F3D2-8BB5-4107-A3FE-4543DB203025}" name="FC" dataDxfId="1">
+      <calculatedColumnFormula>L2/K2*M2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{B3AD5C8B-7654-443C-A938-D43CDD8C10E4}" name="FVL" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{1B23AED8-4E2D-4B71-B034-930FAC972809}" name="Nota 1" dataDxfId="11">
+      <calculatedColumnFormula>N2*0.7+O2*0.3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B3B52A7-551E-4544-B0AA-59E4098CE117}" name="Table2" displayName="Table2" ref="R2:S8" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3C1B61C7-9FB8-4E2C-BAF8-0742B2369DC8}" name="Factor" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B0CEFA24-49FB-4382-A7EA-48AC13D66496}" name="Explicación" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1081,32 +1325,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1134,229 +1380,375 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2210787</v>
+        <v>2150912</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>1114312543</v>
+        <v>1107519674</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>3137378906</v>
+        <v>3215457498</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I2">
-        <v>3137378906</v>
-      </c>
-      <c r="J2">
+        <v>3215457498</v>
+      </c>
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3">
+        <f>AVERAGE(4.5,3,4)</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="N2" s="3">
+        <f>L2/K2*M2</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="O2" s="3">
+        <v>4</v>
+      </c>
+      <c r="P2" s="3">
+        <f>N2*0.7+O2*0.3</f>
+        <v>3.8833333333333329</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2160622</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2">
         <v>1</v>
       </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f>L3/K3*M3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4</v>
+      </c>
+      <c r="P3" s="3">
+        <f>N3*0.7+O3*0.3</f>
+        <v>1.2</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2150912</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>1107519674</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>3215457498</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3">
-        <v>3215457498</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2190393</v>
+        <v>2175459</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4">
-        <v>1006491676</v>
+        <v>1004189893</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>3177268076</v>
+        <v>3185763663</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>3177268076</v>
-      </c>
-      <c r="J4">
+        <v>3185763663</v>
+      </c>
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
         <v>1</v>
       </c>
+      <c r="M4" s="3">
+        <f>AVERAGE(5,0)</f>
+        <v>2.5</v>
+      </c>
+      <c r="N4" s="3">
+        <f>L4/K4*M4</f>
+        <v>1.25</v>
+      </c>
+      <c r="O4" s="3">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3">
+        <f>N4*0.7+O4*0.3</f>
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2175459</v>
+        <v>2175635</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>1004189893</v>
+        <v>1002809479</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>3185763663</v>
+        <v>3218247588</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I5">
-        <v>3185763663</v>
-      </c>
-      <c r="J5">
+        <v>3218247588</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <f>AVERAGE(4.5,0,)</f>
+        <v>1.5</v>
+      </c>
+      <c r="N5" s="3">
+        <f>L5/K5*M5</f>
+        <v>0.75</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="P5" s="3">
+        <f>N5*0.7+O5*0.3</f>
+        <v>1.8749999999999998</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2190393</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1006491676</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>3177268076</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>3177268076</v>
+      </c>
+      <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K6" s="2">
         <v>2</v>
       </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
+        <f>AVERAGE(5,3)</f>
+        <v>4</v>
+      </c>
+      <c r="N6" s="3">
+        <f>L6/K6*M6</f>
+        <v>4</v>
+      </c>
+      <c r="O6" s="3">
+        <v>4</v>
+      </c>
+      <c r="P6" s="3">
+        <f>N6*0.7+O6*0.3</f>
+        <v>4</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2160622</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2175635</v>
+        <v>2200006</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>1002809479</v>
+        <v>1004191308</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>3218247588</v>
+        <v>3184301578</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I7">
-        <v>3218247588</v>
-      </c>
-      <c r="J7">
+        <v>3184301578</v>
+      </c>
+      <c r="J7" s="2">
         <v>2</v>
       </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <f>AVERAGE(4.5,4.5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <f>L7/K7*M7</f>
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="P7" s="3">
+        <f>N7*0.7+O7*0.3</f>
+        <v>2.3999999999999995</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2206294</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1365,126 +1757,214 @@
         <v>1006098800</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>3177431937</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>3177431937</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>2</v>
       </c>
+      <c r="K8" s="2">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <f>L8/K8*M8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="P8" s="3">
+        <f>N8*0.7+O8*0.3</f>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2200006</v>
+        <v>2210078</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>1004191308</v>
+        <v>1126588397</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>3184301578</v>
+        <v>3117129509</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I9">
-        <v>3184301578</v>
-      </c>
-      <c r="J9">
+        <v>3117129509</v>
+      </c>
+      <c r="J9" s="2">
         <v>2</v>
       </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
+        <f>AVERAGE(0,4.5,4,4.5)</f>
+        <v>3.25</v>
+      </c>
+      <c r="N9" s="3">
+        <f>L9/K9*M9</f>
+        <v>1.95</v>
+      </c>
+      <c r="O9" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="P9" s="3">
+        <f>N9*0.7+O9*0.3</f>
+        <v>2.7149999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2210078</v>
+        <v>2210166</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10">
-        <v>1126588397</v>
+        <v>1109920277</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>3117129509</v>
+        <v>3133688323</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>3117129509</v>
-      </c>
-      <c r="J10">
+        <v>3133688323</v>
+      </c>
+      <c r="J10" s="2">
         <v>2</v>
       </c>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <f>L10/K10*M10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="P10" s="3">
+        <f>N10*0.7+O10*0.3</f>
+        <v>1.3499999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2210166</v>
+        <v>2210261</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11">
-        <v>1109920277</v>
+        <v>1004540422</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G11">
-        <v>3133688323</v>
+        <v>3152372107</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I11">
-        <v>3133688323</v>
-      </c>
-      <c r="J11">
+        <v>3152372107</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2">
         <v>2</v>
       </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <f>AVERAGE(4.5,5)</f>
+        <v>4.75</v>
+      </c>
+      <c r="N11" s="3">
+        <f>L11/K11*M11</f>
+        <v>4.75</v>
+      </c>
+      <c r="O11" s="3">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3">
+        <f>N11*0.7+O11*0.3</f>
+        <v>4.8249999999999993</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2210274</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1493,171 +1973,208 @@
         <v>1007370882</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>3045876257</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12">
         <v>3045876257</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>3</v>
       </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3">
+        <f>AVERAGE(3.5,4.5)</f>
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <f>L12/K12*M12</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3">
+        <f>N12*0.7+O12*0.3</f>
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2210261</v>
+        <v>2210787</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>1004540422</v>
+        <v>1114312543</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>3152372107</v>
+        <v>3137378906</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I13">
-        <v>3152372107</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
+        <v>3137378906</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>4</v>
+      </c>
+      <c r="N13" s="3">
+        <f>L13/K13*M13</f>
+        <v>4</v>
+      </c>
+      <c r="O13" s="3">
+        <v>4</v>
+      </c>
+      <c r="P13" s="3">
+        <f>N13*0.7+O13*0.3</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2211617</v>
+        <v>2210940</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14">
-        <v>1078457604</v>
+        <v>1005784498</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G14">
-        <v>3144252423</v>
+        <v>3005919525</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I14">
-        <v>3144252423</v>
-      </c>
-      <c r="J14">
+        <v>3005919525</v>
+      </c>
+      <c r="J14" s="2">
         <v>3</v>
       </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
+        <f>AVERAGE(5,5)</f>
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
+        <f>L14/K14*M14</f>
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
+        <f>N14*0.7+O14*0.3</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2210940</v>
+        <v>2211617</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15">
-        <v>1005784498</v>
+        <v>1078457604</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G15">
-        <v>3005919525</v>
+        <v>3144252423</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I15">
-        <v>3005919525</v>
-      </c>
-      <c r="J15">
+        <v>3144252423</v>
+      </c>
+      <c r="J15" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="3">
+        <f>AVERAGE(5,5)</f>
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
+        <f>L15/K15*M15</f>
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
+        <f>N15*0.7+O15*0.3</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
-      <sortCondition ref="J1"/>
-    </sortState>
-  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{79C9A5E6-6C04-42E3-AE58-C2C0E9A77FA0}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{79C9A5E6-6C04-42E3-AE58-C2C0E9A77FA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251D6AB-C8B9-457C-B3B1-74B0849ECE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC65640-78D6-49EC-B738-6772F68EE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,7 +277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -841,7 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -902,30 +902,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -966,13 +942,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -988,17 +957,48 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1021,7 +1021,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8B87026-C25E-466C-9D89-86F01121DE90}" name="Table1" displayName="Table1" ref="A1:P15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8B87026-C25E-466C-9D89-86F01121DE90}" name="Table1" displayName="Table1" ref="A1:P15" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:P15" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
     <sortCondition ref="A1:A15"/>
@@ -1036,15 +1036,15 @@
     <tableColumn id="7" xr3:uid="{06BE4900-2E64-4235-9B99-0BFD16142580}" name="CELULAR"/>
     <tableColumn id="8" xr3:uid="{024BBB23-E577-435F-9E3E-13C1C0190FF9}" name="CORREO_UAO"/>
     <tableColumn id="9" xr3:uid="{91D225F0-3B16-4782-9080-DC8C72FF3428}" name="TEL_OFI"/>
-    <tableColumn id="10" xr3:uid="{B4A98B5C-8718-4217-BF4E-055FE54C3699}" name="Grupo" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{6D057658-905C-41AB-9151-B77391AC67A4}" name="TAC" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{414EEDA8-9EE3-4469-9C98-EA2D5D3410B7}" name="TC" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{5F26FEA4-C7EC-45AF-8744-1B6AB6BDC555}" name="QT" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{C896F3D2-8BB5-4107-A3FE-4543DB203025}" name="FC" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{B4A98B5C-8718-4217-BF4E-055FE54C3699}" name="Grupo" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{6D057658-905C-41AB-9151-B77391AC67A4}" name="TAC" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{414EEDA8-9EE3-4469-9C98-EA2D5D3410B7}" name="TC" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{5F26FEA4-C7EC-45AF-8744-1B6AB6BDC555}" name="QT" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{C896F3D2-8BB5-4107-A3FE-4543DB203025}" name="FC" dataDxfId="8">
       <calculatedColumnFormula>L2/K2*M2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B3AD5C8B-7654-443C-A938-D43CDD8C10E4}" name="FVL" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{1B23AED8-4E2D-4B71-B034-930FAC972809}" name="Nota 1" dataDxfId="11">
+    <tableColumn id="15" xr3:uid="{B3AD5C8B-7654-443C-A938-D43CDD8C10E4}" name="FVL" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{1B23AED8-4E2D-4B71-B034-930FAC972809}" name="Nota 1" dataDxfId="6">
       <calculatedColumnFormula>N2*0.7+O2*0.3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1053,10 +1053,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B3B52A7-551E-4544-B0AA-59E4098CE117}" name="Table2" displayName="Table2" ref="R2:S8" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B3B52A7-551E-4544-B0AA-59E4098CE117}" name="Table2" displayName="Table2" ref="R2:S8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3C1B61C7-9FB8-4E2C-BAF8-0742B2369DC8}" name="Factor" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B0CEFA24-49FB-4382-A7EA-48AC13D66496}" name="Explicación" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3C1B61C7-9FB8-4E2C-BAF8-0742B2369DC8}" name="Factor" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B0CEFA24-49FB-4382-A7EA-48AC13D66496}" name="Explicación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1328,20 +1328,20 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -1444,14 +1444,14 @@
         <v>3.8333333333333335</v>
       </c>
       <c r="N2" s="3">
-        <f>L2/K2*M2</f>
+        <f t="shared" ref="N2:N15" si="0">L2/K2*M2</f>
         <v>3.8333333333333335</v>
       </c>
       <c r="O2" s="3">
         <v>4</v>
       </c>
       <c r="P2" s="3">
-        <f>N2*0.7+O2*0.3</f>
+        <f t="shared" ref="P2:P15" si="1">N2*0.7+O2*0.3</f>
         <v>3.8833333333333329</v>
       </c>
       <c r="R2" s="6" t="s">
@@ -1487,14 +1487,14 @@
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <f>L3/K3*M3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="3">
         <v>4</v>
       </c>
       <c r="P3" s="3">
-        <f>N3*0.7+O3*0.3</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="R3" s="4" t="s">
@@ -1546,14 +1546,14 @@
         <v>2.5</v>
       </c>
       <c r="N4" s="3">
-        <f>L4/K4*M4</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="O4" s="3">
         <v>4</v>
       </c>
       <c r="P4" s="3">
-        <f>N4*0.7+O4*0.3</f>
+        <f t="shared" si="1"/>
         <v>2.0750000000000002</v>
       </c>
       <c r="R4" s="4" t="s">
@@ -1605,14 +1605,14 @@
         <v>1.5</v>
       </c>
       <c r="N5" s="3">
-        <f>L5/K5*M5</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="O5" s="3">
         <v>4.5</v>
       </c>
       <c r="P5" s="3">
-        <f>N5*0.7+O5*0.3</f>
+        <f t="shared" si="1"/>
         <v>1.8749999999999998</v>
       </c>
       <c r="R5" s="4" t="s">
@@ -1664,14 +1664,14 @@
         <v>4</v>
       </c>
       <c r="N6" s="3">
-        <f>L6/K6*M6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O6" s="3">
         <v>4</v>
       </c>
       <c r="P6" s="3">
-        <f>N6*0.7+O6*0.3</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R6" s="4" t="s">
@@ -1723,14 +1723,14 @@
         <v>3</v>
       </c>
       <c r="N7" s="3">
-        <f>L7/K7*M7</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="O7" s="3">
         <v>4.5</v>
       </c>
       <c r="P7" s="3">
-        <f>N7*0.7+O7*0.3</f>
+        <f t="shared" si="1"/>
         <v>2.3999999999999995</v>
       </c>
       <c r="R7" s="4" t="s">
@@ -1781,14 +1781,14 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <f>L8/K8*M8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>4.5</v>
       </c>
       <c r="P8" s="3">
-        <f>N8*0.7+O8*0.3</f>
+        <f t="shared" si="1"/>
         <v>1.3499999999999999</v>
       </c>
       <c r="R8" s="8" t="s">
@@ -1840,14 +1840,14 @@
         <v>3.25</v>
       </c>
       <c r="N9" s="3">
-        <f>L9/K9*M9</f>
+        <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
       <c r="O9" s="3">
         <v>4.5</v>
       </c>
       <c r="P9" s="3">
-        <f>N9*0.7+O9*0.3</f>
+        <f t="shared" si="1"/>
         <v>2.7149999999999999</v>
       </c>
     </row>
@@ -1892,14 +1892,14 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <f>L10/K10*M10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>4.5</v>
       </c>
       <c r="P10" s="3">
-        <f>N10*0.7+O10*0.3</f>
+        <f t="shared" si="1"/>
         <v>1.3499999999999999</v>
       </c>
     </row>
@@ -1945,14 +1945,14 @@
         <v>4.75</v>
       </c>
       <c r="N11" s="3">
-        <f>L11/K11*M11</f>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
       <c r="O11" s="3">
         <v>5</v>
       </c>
       <c r="P11" s="3">
-        <f>N11*0.7+O11*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.8249999999999993</v>
       </c>
     </row>
@@ -1998,14 +1998,14 @@
         <v>4</v>
       </c>
       <c r="N12" s="3">
-        <f>L12/K12*M12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O12" s="3">
         <v>5</v>
       </c>
       <c r="P12" s="3">
-        <f>N12*0.7+O12*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
     </row>
@@ -2050,14 +2050,14 @@
         <v>4</v>
       </c>
       <c r="N13" s="3">
-        <f>L13/K13*M13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O13" s="3">
         <v>4</v>
       </c>
       <c r="P13" s="3">
-        <f>N13*0.7+O13*0.3</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2103,14 +2103,14 @@
         <v>5</v>
       </c>
       <c r="N14" s="3">
-        <f>L14/K14*M14</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>5</v>
       </c>
       <c r="P14" s="3">
-        <f>N14*0.7+O14*0.3</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -2156,14 +2156,14 @@
         <v>5</v>
       </c>
       <c r="N15" s="3">
-        <f>L15/K15*M15</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>5</v>
       </c>
       <c r="P15" s="3">
-        <f>N15*0.7+O15*0.3</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>

--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC65640-78D6-49EC-B738-6772F68EE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="grupo" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grupo!$A$1:$P$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grupo!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>CODIGO</t>
   </si>
@@ -245,15 +245,6 @@
     <t>Concepto FVL</t>
   </si>
   <si>
-    <t>JUAN JOSE</t>
-  </si>
-  <si>
-    <t>GARCIA CARABALI</t>
-  </si>
-  <si>
-    <t>juan_j.garcia@uao.edu.co</t>
-  </si>
-  <si>
     <t>0.7*FC+0.3*FVL</t>
   </si>
   <si>
@@ -270,16 +261,67 @@
   </si>
   <si>
     <t>Calidad de las tareas (promedio de las notas de las tareas cumplidas)</t>
+  </si>
+  <si>
+    <t>Nota 2</t>
+  </si>
+  <si>
+    <t>CORTE 2</t>
+  </si>
+  <si>
+    <t>JENNIFER MARIANA GUERRERO PEJENDINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALEJANDRA GARCES VILLEGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAMUEL RIVERA NAVARRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LIZ ANGELY PINO RENTERIA</t>
+  </si>
+  <si>
+    <t>Presentación</t>
+  </si>
+  <si>
+    <t>PREG</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>PRES</t>
+  </si>
+  <si>
+    <t>PROM</t>
+  </si>
+  <si>
+    <t>FC_</t>
+  </si>
+  <si>
+    <t>Calidad de las preguntas hechas</t>
+  </si>
+  <si>
+    <t>Preguntas respondidas</t>
+  </si>
+  <si>
+    <t>Promedio(PREG,PAR,PRES)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor de Cumplimiento tareas en el repositorio </t>
+  </si>
+  <si>
+    <t>0.7*FC+0.3*PROM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,15 +457,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +656,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -790,7 +857,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -833,11 +900,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,53 +919,173 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1004,9 +1189,6 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1021,31 +1203,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8B87026-C25E-466C-9D89-86F01121DE90}" name="Table1" displayName="Table1" ref="A1:P15" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:P15" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
-    <sortCondition ref="A1:A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:W14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="27">
+  <autoFilter ref="A1:W14"/>
+  <sortState ref="A2:W15">
+    <sortCondition ref="B1:B15"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{D8C0283F-E472-48DA-8D10-E11966F4645C}" name="CODIGO"/>
-    <tableColumn id="2" xr3:uid="{0FADA472-622A-4DC7-A0AE-1ADC3F70BE9D}" name="APELLIDOS"/>
-    <tableColumn id="3" xr3:uid="{9445B9DA-1A63-4ED0-A859-A055A6892127}" name="NOMBRES"/>
-    <tableColumn id="4" xr3:uid="{8DCFF152-B36F-481A-BBA7-EF8617FBE42C}" name="PLAN"/>
-    <tableColumn id="5" xr3:uid="{6305DBFA-0E7F-4828-81EF-1DFDBBA567C7}" name="DOC_IDENTIDAD"/>
-    <tableColumn id="6" xr3:uid="{9133F657-96DF-4D1D-A279-1F39E46D33C8}" name="CIUDAD"/>
-    <tableColumn id="7" xr3:uid="{06BE4900-2E64-4235-9B99-0BFD16142580}" name="CELULAR"/>
-    <tableColumn id="8" xr3:uid="{024BBB23-E577-435F-9E3E-13C1C0190FF9}" name="CORREO_UAO"/>
-    <tableColumn id="9" xr3:uid="{91D225F0-3B16-4782-9080-DC8C72FF3428}" name="TEL_OFI"/>
-    <tableColumn id="10" xr3:uid="{B4A98B5C-8718-4217-BF4E-055FE54C3699}" name="Grupo" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{6D057658-905C-41AB-9151-B77391AC67A4}" name="TAC" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{414EEDA8-9EE3-4469-9C98-EA2D5D3410B7}" name="TC" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{5F26FEA4-C7EC-45AF-8744-1B6AB6BDC555}" name="QT" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{C896F3D2-8BB5-4107-A3FE-4543DB203025}" name="FC" dataDxfId="8">
+  <tableColumns count="23">
+    <tableColumn id="1" name="CODIGO"/>
+    <tableColumn id="2" name="APELLIDOS"/>
+    <tableColumn id="3" name="NOMBRES"/>
+    <tableColumn id="4" name="PLAN"/>
+    <tableColumn id="5" name="DOC_IDENTIDAD"/>
+    <tableColumn id="6" name="CIUDAD"/>
+    <tableColumn id="7" name="CELULAR"/>
+    <tableColumn id="8" name="CORREO_UAO"/>
+    <tableColumn id="9" name="TEL_OFI"/>
+    <tableColumn id="10" name="Grupo" dataDxfId="26"/>
+    <tableColumn id="11" name="TAC" dataDxfId="25"/>
+    <tableColumn id="12" name="TC" dataDxfId="24"/>
+    <tableColumn id="13" name="QT" dataDxfId="23"/>
+    <tableColumn id="14" name="FC" dataDxfId="22">
       <calculatedColumnFormula>L2/K2*M2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B3AD5C8B-7654-443C-A938-D43CDD8C10E4}" name="FVL" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{1B23AED8-4E2D-4B71-B034-930FAC972809}" name="Nota 1" dataDxfId="6">
+    <tableColumn id="15" name="FVL" dataDxfId="21"/>
+    <tableColumn id="16" name="Nota 1" dataDxfId="20">
       <calculatedColumnFormula>N2*0.7+O2*0.3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="CORTE 2" dataDxfId="12"/>
+    <tableColumn id="20" name="PREG" dataDxfId="11"/>
+    <tableColumn id="19" name="PAR" dataDxfId="10"/>
+    <tableColumn id="23" name="PRES" dataDxfId="9"/>
+    <tableColumn id="25" name="PROM" dataDxfId="8">
+      <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="FC_" dataDxfId="0">
+      <calculatedColumnFormula>N2*0.7+U2*0.3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="Nota 2" dataDxfId="1">
+      <calculatedColumnFormula>V2*0.7+U2*0.3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1053,10 +1248,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B3B52A7-551E-4544-B0AA-59E4098CE117}" name="Table2" displayName="Table2" ref="R2:S8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="Z2:AA8" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3C1B61C7-9FB8-4E2C-BAF8-0742B2369DC8}" name="Factor" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{B0CEFA24-49FB-4382-A7EA-48AC13D66496}" name="Explicación" dataDxfId="0"/>
+    <tableColumn id="1" name="Factor" dataDxfId="15"/>
+    <tableColumn id="2" name="Explicación" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="Z11:AA17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Factor" dataDxfId="3"/>
+    <tableColumn id="2" name="Explicación" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1324,246 +1529,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H15"/>
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="63.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="11"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2150912</v>
+        <v>2210787</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2">
+        <v>1114312543</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>3137378906</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>3137378906</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2">
+        <f>L2/K2*M2</f>
+        <v>4</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2">
+        <f>N2*0.7+O2*0.3</f>
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2.8181818181818183</v>
+      </c>
+      <c r="T2" s="2">
+        <v>3</v>
+      </c>
+      <c r="U2" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>2.606060606060606</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3.024242424242424</v>
+      </c>
+      <c r="W2" s="2">
+        <f>V2*0.7+U2*0.3</f>
+        <v>2.8987878787878785</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2175459</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1004189893</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>3185763663</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>3185763663</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <f>AVERAGE(5,0)</f>
+        <v>2.5</v>
+      </c>
+      <c r="N3" s="2">
+        <f>L3/K3*M3</f>
+        <v>1.25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2">
+        <f>N3*0.7+O3*0.3</f>
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <f>N3*0.7+U3*0.3</f>
+        <v>0.875</v>
+      </c>
+      <c r="W3" s="2">
+        <f>V3*0.7+U3*0.3</f>
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2150912</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>1107519674</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>3215457498</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="I2">
+      <c r="I4">
         <v>3215457498</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M4" s="2">
         <f>AVERAGE(4.5,3,4)</f>
         <v>3.8333333333333335</v>
       </c>
-      <c r="N2" s="3">
-        <f t="shared" ref="N2:N15" si="0">L2/K2*M2</f>
+      <c r="N4" s="2">
+        <f>L4/K4*M4</f>
         <v>3.8333333333333335</v>
       </c>
-      <c r="O2" s="3">
-        <v>4</v>
-      </c>
-      <c r="P2" s="3">
-        <f t="shared" ref="P2:P15" si="1">N2*0.7+O2*0.3</f>
+      <c r="O4" s="2">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2">
+        <f>N4*0.7+O4*0.3</f>
         <v>3.8833333333333329</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2160622</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3.4545454545454546</v>
+      </c>
+      <c r="T4" s="2">
+        <v>5</v>
+      </c>
+      <c r="U4" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>3.8181818181818183</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3.8227272727272728</v>
+      </c>
+      <c r="W4" s="2">
+        <f>V4*0.7+U4*0.3</f>
+        <v>3.8213636363636363</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>4</v>
-      </c>
-      <c r="P3" s="3">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2175459</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1004189893</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>3185763663</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4">
-        <v>3185763663</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <f>AVERAGE(5,0)</f>
-        <v>2.5</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="O4" s="3">
-        <v>4</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0750000000000002</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2175635</v>
       </c>
@@ -1591,590 +1909,1028 @@
       <c r="I5">
         <v>3218247588</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="2">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2</v>
-      </c>
-      <c r="M5" s="3">
-        <f>AVERAGE(4.5,0,)</f>
-        <v>1.5</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2">
+        <f>L5/K5*M5</f>
+        <v>4</v>
+      </c>
+      <c r="O5" s="2">
         <v>4.5</v>
       </c>
-      <c r="P5" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8749999999999998</v>
-      </c>
-      <c r="R5" s="4" t="s">
+      <c r="P5" s="2">
+        <f>N5*0.7+O5*0.3</f>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2">
+        <v>5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>4.875</v>
+      </c>
+      <c r="T5" s="2">
+        <v>4</v>
+      </c>
+      <c r="U5" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>4.625</v>
+      </c>
+      <c r="V5" s="2">
+        <f>N5*0.7+U5*0.3</f>
+        <v>4.1875</v>
+      </c>
+      <c r="W5" s="2">
+        <f>V5*0.7+U5*0.3</f>
+        <v>4.3187499999999996</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AA5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2190393</v>
+        <v>2210274</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6">
-        <v>1006491676</v>
+        <v>1007370882</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>3177268076</v>
+        <v>3045876257</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I6">
-        <v>3177268076</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
+        <v>3045876257</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>2</v>
       </c>
-      <c r="M6" s="3">
-        <f>AVERAGE(5,3)</f>
-        <v>4</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O6" s="3">
-        <v>4</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R6" s="4" t="s">
+      <c r="M6" s="2">
+        <f>AVERAGE(3.5,4.5)</f>
+        <v>4</v>
+      </c>
+      <c r="N6" s="2">
+        <f>L6/K6*M6</f>
+        <v>4</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2">
+        <f>N6*0.7+O6*0.3</f>
+        <v>4.3</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
+        <v>5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="T6" s="2">
+        <v>4</v>
+      </c>
+      <c r="U6" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>4.5714285714285721</v>
+      </c>
+      <c r="V6" s="2">
+        <f>N6*0.7+U6*0.3</f>
+        <v>4.1714285714285717</v>
+      </c>
+      <c r="W6" s="2">
+        <f>V6*0.7+U6*0.3</f>
+        <v>4.2914285714285718</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AA6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2200006</v>
+        <v>2206294</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>1004191308</v>
+        <v>1006098800</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
       <c r="G7">
-        <v>3184301578</v>
+        <v>3177431937</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I7">
-        <v>3184301578</v>
-      </c>
-      <c r="J7" s="2">
+        <v>3177431937</v>
+      </c>
+      <c r="J7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="2">
-        <v>4</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2</v>
-      </c>
-      <c r="M7" s="3">
-        <f>AVERAGE(4.5,4.5,0)</f>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
         <v>3</v>
       </c>
-      <c r="N7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="M7" s="2">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2">
+        <f>L7/K7*M7</f>
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
         <v>4.5</v>
       </c>
-      <c r="P7" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3999999999999995</v>
-      </c>
-      <c r="R7" s="4" t="s">
+      <c r="P7" s="2">
+        <f>N7*0.7+O7*0.3</f>
+        <v>3.4499999999999993</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2">
+        <v>4.875</v>
+      </c>
+      <c r="T7" s="2">
+        <v>5</v>
+      </c>
+      <c r="U7" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>4.291666666666667</v>
+      </c>
+      <c r="V7" s="2">
+        <f>N7*0.7+U7*0.3</f>
+        <v>3.3874999999999997</v>
+      </c>
+      <c r="W7" s="2">
+        <f>V7*0.7+U7*0.3</f>
+        <v>3.6587499999999999</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="AA7" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2206294</v>
+        <v>2210261</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>1006098800</v>
+        <v>1004540422</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8">
-        <v>3177431937</v>
+        <v>3152372107</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I8">
-        <v>3177431937</v>
-      </c>
-      <c r="J8" s="2">
+        <v>3152372107</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="2">
-        <v>4</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="P8" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3499999999999999</v>
-      </c>
-      <c r="R8" s="8" t="s">
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2">
+        <f>AVERAGE(4.5,5)</f>
+        <v>4.75</v>
+      </c>
+      <c r="N8" s="2">
+        <f>L8/K8*M8</f>
+        <v>4.75</v>
+      </c>
+      <c r="O8" s="2">
+        <v>5</v>
+      </c>
+      <c r="P8" s="2">
+        <f>N8*0.7+O8*0.3</f>
+        <v>4.8249999999999993</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
+        <v>5</v>
+      </c>
+      <c r="S8" s="2">
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="T8" s="2">
+        <v>5</v>
+      </c>
+      <c r="U8" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>4.9523809523809526</v>
+      </c>
+      <c r="V8" s="2">
+        <f>N8*0.7+U8*0.3</f>
+        <v>4.8107142857142851</v>
+      </c>
+      <c r="W8" s="2">
+        <f>V8*0.7+U8*0.3</f>
+        <v>4.8532142857142855</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="S8" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AA8" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2210078</v>
+        <v>2200006</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>1126588397</v>
+        <v>1004191308</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>3117129509</v>
+        <v>3184301578</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I9">
-        <v>3117129509</v>
-      </c>
-      <c r="J9" s="2">
+        <v>3184301578</v>
+      </c>
+      <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="2">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3">
-        <f>AVERAGE(0,4.5,4,4.5)</f>
-        <v>3.25</v>
-      </c>
-      <c r="N9" s="3">
-        <f t="shared" si="0"/>
-        <v>1.95</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2">
+        <f>L9/K9*M9</f>
+        <v>4</v>
+      </c>
+      <c r="O9" s="2">
         <v>4.5</v>
       </c>
-      <c r="P9" s="3">
-        <f t="shared" si="1"/>
-        <v>2.7149999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P9" s="2">
+        <f>N9*0.7+O9*0.3</f>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>4.875</v>
+      </c>
+      <c r="T9" s="2">
+        <v>4</v>
+      </c>
+      <c r="U9" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>3.2916666666666665</v>
+      </c>
+      <c r="V9" s="2">
+        <f>N9*0.7+U9*0.3</f>
+        <v>3.7874999999999996</v>
+      </c>
+      <c r="W9" s="2">
+        <f>V9*0.7+U9*0.3</f>
+        <v>3.6387499999999995</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2210166</v>
+        <v>2211617</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10">
-        <v>1109920277</v>
+        <v>1078457604</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G10">
-        <v>3133688323</v>
+        <v>3144252423</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I10">
-        <v>3133688323</v>
-      </c>
-      <c r="J10" s="2">
+        <v>3144252423</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="2">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3499999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <f>AVERAGE(5,5)</f>
+        <v>5</v>
+      </c>
+      <c r="N10" s="2">
+        <f>L10/K10*M10</f>
+        <v>5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <f>N10*0.7+O10*0.3</f>
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2">
+        <v>4</v>
+      </c>
+      <c r="S10" s="2">
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="T10" s="2">
+        <v>5</v>
+      </c>
+      <c r="U10" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>4.6190476190476195</v>
+      </c>
+      <c r="V10" s="2">
+        <f>N10*0.7+U10*0.3</f>
+        <v>4.8857142857142861</v>
+      </c>
+      <c r="W10" s="2">
+        <f>V10*0.7+U10*0.3</f>
+        <v>4.805714285714286</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2210261</v>
+        <v>2210940</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11">
-        <v>1004540422</v>
+        <v>1005784498</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>3152372107</v>
+        <v>3005919525</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I11">
-        <v>3152372107</v>
-      </c>
-      <c r="J11" s="2">
+        <v>3005919525</v>
+      </c>
+      <c r="J11" s="1">
         <v>3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>2</v>
       </c>
-      <c r="M11" s="3">
-        <f>AVERAGE(4.5,5)</f>
-        <v>4.75</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-      <c r="O11" s="3">
-        <v>5</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="1"/>
-        <v>4.8249999999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <f>AVERAGE(5,5)</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <f>L11/K11*M11</f>
+        <v>5</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5</v>
+      </c>
+      <c r="P11" s="2">
+        <f>N11*0.7+O11*0.3</f>
+        <v>5</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2">
+        <v>3</v>
+      </c>
+      <c r="S11" s="2">
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="T11" s="2">
+        <v>4</v>
+      </c>
+      <c r="U11" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>3.9047619047619051</v>
+      </c>
+      <c r="V11" s="2">
+        <f>N11*0.7+U11*0.3</f>
+        <v>4.6714285714285717</v>
+      </c>
+      <c r="W11" s="2">
+        <f>V11*0.7+U11*0.3</f>
+        <v>4.4414285714285713</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2210274</v>
+        <v>2190393</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12">
-        <v>1007370882</v>
+        <v>1006491676</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>3045876257</v>
+        <v>3177268076</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I12">
-        <v>3045876257</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2">
+        <v>3177268076</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
         <v>2</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>2</v>
       </c>
-      <c r="M12" s="3">
-        <f>AVERAGE(3.5,4.5)</f>
-        <v>4</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>5</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="1"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <f>AVERAGE(5,3)</f>
+        <v>4</v>
+      </c>
+      <c r="N12" s="2">
+        <f>L12/K12*M12</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4</v>
+      </c>
+      <c r="P12" s="2">
+        <f>N12*0.7+O12*0.3</f>
+        <v>4</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2">
+        <v>5</v>
+      </c>
+      <c r="S12" s="2">
+        <v>3.8181818181818183</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2</v>
+      </c>
+      <c r="U12" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>3.606060606060606</v>
+      </c>
+      <c r="V12" s="2">
+        <v>3.7242424242424237</v>
+      </c>
+      <c r="W12" s="2">
+        <f>V12*0.7+U12*0.3</f>
+        <v>3.6887878787878785</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2210787</v>
+        <v>2210078</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>1114312543</v>
+        <v>1126588397</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>3137378906</v>
+        <v>3117129509</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I13">
-        <v>3137378906</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>4</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O13" s="3">
-        <v>4</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3117129509</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2">
+        <f>L13/K13*M13</f>
+        <v>3.2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="P13" s="2">
+        <f>N13*0.7+O13*0.3</f>
+        <v>3.59</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2">
+        <v>2</v>
+      </c>
+      <c r="S13" s="2">
+        <v>5</v>
+      </c>
+      <c r="T13" s="2">
+        <v>3</v>
+      </c>
+      <c r="U13" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="V13" s="2">
+        <f>N13*0.7+U13*0.3</f>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="W13" s="2">
+        <f>V13*0.7+U13*0.3</f>
+        <v>3.2679999999999998</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2210940</v>
+        <v>2210166</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14">
-        <v>1005784498</v>
+        <v>1109920277</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G14">
-        <v>3005919525</v>
+        <v>3133688323</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I14">
-        <v>3005919525</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2">
+        <v>3133688323</v>
+      </c>
+      <c r="J14" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="2">
-        <v>2</v>
-      </c>
-      <c r="M14" s="3">
-        <f>AVERAGE(5,5)</f>
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2211617</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>1078457604</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15">
-        <v>3144252423</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15">
-        <v>3144252423</v>
-      </c>
-      <c r="J15" s="2">
-        <v>3</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2">
-        <v>2</v>
-      </c>
-      <c r="M15" s="3">
-        <f>AVERAGE(5,5)</f>
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2">
+        <f>L14/K14*M14</f>
+        <v>4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="P14" s="2">
+        <f>N14*0.7+O14*0.3</f>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="S14" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="T14" s="2">
+        <v>4</v>
+      </c>
+      <c r="U14" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="V14" s="2">
+        <f>N14*0.7+U14*0.3</f>
+        <v>3.8249999999999997</v>
+      </c>
+      <c r="W14" s="2">
+        <f>V14*0.7+U14*0.3</f>
+        <v>3.7024999999999997</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="Z17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{79C9A5E6-6C04-42E3-AE58-C2C0E9A77FA0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="12">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+      <c r="E4" s="13">
+        <v>4</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13">
+        <v>5</v>
+      </c>
+      <c r="E8" s="13">
+        <v>5</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>AVERAGE(B2:B8)</f>
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(C2:C8)</f>
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(D2:D8)</f>
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE(E2:E8)</f>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14">
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="E19">
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="F19">
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="G19">
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90528DC1-A333-423F-9E14-F8C221B12E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grupo" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grupo!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -317,7 +318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -936,58 +937,50 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1029,13 +1022,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1045,6 +1031,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1062,29 +1055,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1178,6 +1148,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1188,6 +1183,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1203,43 +1204,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:W14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="27">
-  <autoFilter ref="A1:W14"/>
-  <sortState ref="A2:W15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:W14" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:W14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W15">
     <sortCondition ref="B1:B15"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" name="CODIGO"/>
-    <tableColumn id="2" name="APELLIDOS"/>
-    <tableColumn id="3" name="NOMBRES"/>
-    <tableColumn id="4" name="PLAN"/>
-    <tableColumn id="5" name="DOC_IDENTIDAD"/>
-    <tableColumn id="6" name="CIUDAD"/>
-    <tableColumn id="7" name="CELULAR"/>
-    <tableColumn id="8" name="CORREO_UAO"/>
-    <tableColumn id="9" name="TEL_OFI"/>
-    <tableColumn id="10" name="Grupo" dataDxfId="26"/>
-    <tableColumn id="11" name="TAC" dataDxfId="25"/>
-    <tableColumn id="12" name="TC" dataDxfId="24"/>
-    <tableColumn id="13" name="QT" dataDxfId="23"/>
-    <tableColumn id="14" name="FC" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CODIGO"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="APELLIDOS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOMBRES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PLAN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DOC_IDENTIDAD"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CIUDAD"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CELULAR"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CORREO_UAO"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="TEL_OFI"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Grupo" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="TAC" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TC" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="QT" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="FC" dataDxfId="21">
       <calculatedColumnFormula>L2/K2*M2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="FVL" dataDxfId="21"/>
-    <tableColumn id="16" name="Nota 1" dataDxfId="20">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="FVL" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Nota 1" dataDxfId="19">
       <calculatedColumnFormula>N2*0.7+O2*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="CORTE 2" dataDxfId="12"/>
-    <tableColumn id="20" name="PREG" dataDxfId="11"/>
-    <tableColumn id="19" name="PAR" dataDxfId="10"/>
-    <tableColumn id="23" name="PRES" dataDxfId="9"/>
-    <tableColumn id="25" name="PROM" dataDxfId="8">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="CORTE 2" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="PREG" dataDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="PAR" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="PRES" dataDxfId="15"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="PROM" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="FC_" dataDxfId="0">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="FC_" dataDxfId="13">
       <calculatedColumnFormula>N2*0.7+U2*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Nota 2" dataDxfId="1">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Nota 2" dataDxfId="12">
       <calculatedColumnFormula>V2*0.7+U2*0.3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1248,20 +1249,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="Z2:AA8" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="Z2:AA8" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <tableColumns count="2">
-    <tableColumn id="1" name="Factor" dataDxfId="15"/>
-    <tableColumn id="2" name="Explicación" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Factor" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Explicación" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="Z11:AA17" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table24" displayName="Table24" ref="Z11:AA17" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" name="Factor" dataDxfId="3"/>
-    <tableColumn id="2" name="Explicación" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Factor" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Explicación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1529,31 +1530,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.28515625" style="1" customWidth="1"/>
     <col min="18" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1676,14 +1676,14 @@
         <v>4</v>
       </c>
       <c r="N2" s="2">
-        <f>L2/K2*M2</f>
+        <f t="shared" ref="N2:N14" si="0">L2/K2*M2</f>
         <v>4</v>
       </c>
       <c r="O2" s="2">
         <v>4</v>
       </c>
       <c r="P2" s="2">
-        <f>N2*0.7+O2*0.3</f>
+        <f t="shared" ref="P2:P14" si="1">N2*0.7+O2*0.3</f>
         <v>4</v>
       </c>
       <c r="Q2" s="2"/>
@@ -1704,7 +1704,7 @@
         <v>3.024242424242424</v>
       </c>
       <c r="W2" s="2">
-        <f>V2*0.7+U2*0.3</f>
+        <f t="shared" ref="W2:W14" si="2">V2*0.7+U2*0.3</f>
         <v>2.8987878787878785</v>
       </c>
       <c r="X2" s="2"/>
@@ -1758,14 +1758,14 @@
         <v>2.5</v>
       </c>
       <c r="N3" s="2">
-        <f>L3/K3*M3</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="O3" s="2">
         <v>4</v>
       </c>
       <c r="P3" s="2">
-        <f>N3*0.7+O3*0.3</f>
+        <f t="shared" si="1"/>
         <v>2.0750000000000002</v>
       </c>
       <c r="Q3" s="2"/>
@@ -1787,7 +1787,7 @@
         <v>0.875</v>
       </c>
       <c r="W3" s="2">
-        <f>V3*0.7+U3*0.3</f>
+        <f t="shared" si="2"/>
         <v>0.61249999999999993</v>
       </c>
       <c r="X3" s="2"/>
@@ -1841,14 +1841,14 @@
         <v>3.8333333333333335</v>
       </c>
       <c r="N4" s="2">
-        <f>L4/K4*M4</f>
+        <f t="shared" si="0"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="O4" s="2">
         <v>4</v>
       </c>
       <c r="P4" s="2">
-        <f>N4*0.7+O4*0.3</f>
+        <f t="shared" si="1"/>
         <v>3.8833333333333329</v>
       </c>
       <c r="Q4" s="2"/>
@@ -1869,7 +1869,7 @@
         <v>3.8227272727272728</v>
       </c>
       <c r="W4" s="2">
-        <f>V4*0.7+U4*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.8213636363636363</v>
       </c>
       <c r="X4" s="2"/>
@@ -1922,14 +1922,14 @@
         <v>4</v>
       </c>
       <c r="N5" s="2">
-        <f>L5/K5*M5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O5" s="2">
         <v>4.5</v>
       </c>
       <c r="P5" s="2">
-        <f>N5*0.7+O5*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.1499999999999995</v>
       </c>
       <c r="Q5" s="2"/>
@@ -1947,11 +1947,11 @@
         <v>4.625</v>
       </c>
       <c r="V5" s="2">
-        <f>N5*0.7+U5*0.3</f>
+        <f t="shared" ref="V5:V11" si="3">N5*0.7+U5*0.3</f>
         <v>4.1875</v>
       </c>
       <c r="W5" s="2">
-        <f>V5*0.7+U5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.3187499999999996</v>
       </c>
       <c r="X5" s="2"/>
@@ -2005,14 +2005,14 @@
         <v>4</v>
       </c>
       <c r="N6" s="2">
-        <f>L6/K6*M6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O6" s="2">
         <v>5</v>
       </c>
       <c r="P6" s="2">
-        <f>N6*0.7+O6*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
       <c r="Q6" s="2"/>
@@ -2030,11 +2030,11 @@
         <v>4.5714285714285721</v>
       </c>
       <c r="V6" s="2">
-        <f>N6*0.7+U6*0.3</f>
+        <f t="shared" si="3"/>
         <v>4.1714285714285717</v>
       </c>
       <c r="W6" s="2">
-        <f>V6*0.7+U6*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.2914285714285718</v>
       </c>
       <c r="X6" s="2"/>
@@ -2087,14 +2087,14 @@
         <v>4</v>
       </c>
       <c r="N7" s="2">
-        <f>L7/K7*M7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="O7" s="2">
         <v>4.5</v>
       </c>
       <c r="P7" s="2">
-        <f>N7*0.7+O7*0.3</f>
+        <f t="shared" si="1"/>
         <v>3.4499999999999993</v>
       </c>
       <c r="Q7" s="2"/>
@@ -2112,11 +2112,11 @@
         <v>4.291666666666667</v>
       </c>
       <c r="V7" s="2">
-        <f>N7*0.7+U7*0.3</f>
+        <f t="shared" si="3"/>
         <v>3.3874999999999997</v>
       </c>
       <c r="W7" s="2">
-        <f>V7*0.7+U7*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.6587499999999999</v>
       </c>
       <c r="X7" s="2"/>
@@ -2170,14 +2170,14 @@
         <v>4.75</v>
       </c>
       <c r="N8" s="2">
-        <f>L8/K8*M8</f>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
       <c r="O8" s="2">
         <v>5</v>
       </c>
       <c r="P8" s="2">
-        <f>N8*0.7+O8*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.8249999999999993</v>
       </c>
       <c r="Q8" s="2"/>
@@ -2195,11 +2195,11 @@
         <v>4.9523809523809526</v>
       </c>
       <c r="V8" s="2">
-        <f>N8*0.7+U8*0.3</f>
+        <f t="shared" si="3"/>
         <v>4.8107142857142851</v>
       </c>
       <c r="W8" s="2">
-        <f>V8*0.7+U8*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.8532142857142855</v>
       </c>
       <c r="X8" s="2"/>
@@ -2252,14 +2252,14 @@
         <v>4</v>
       </c>
       <c r="N9" s="2">
-        <f>L9/K9*M9</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O9" s="2">
         <v>4.5</v>
       </c>
       <c r="P9" s="2">
-        <f>N9*0.7+O9*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.1499999999999995</v>
       </c>
       <c r="Q9" s="2"/>
@@ -2277,11 +2277,11 @@
         <v>3.2916666666666665</v>
       </c>
       <c r="V9" s="2">
-        <f>N9*0.7+U9*0.3</f>
+        <f t="shared" si="3"/>
         <v>3.7874999999999996</v>
       </c>
       <c r="W9" s="2">
-        <f>V9*0.7+U9*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.6387499999999995</v>
       </c>
       <c r="X9" s="2"/>
@@ -2329,14 +2329,14 @@
         <v>5</v>
       </c>
       <c r="N10" s="2">
-        <f>L10/K10*M10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O10" s="2">
         <v>5</v>
       </c>
       <c r="P10" s="2">
-        <f>N10*0.7+O10*0.3</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q10" s="2"/>
@@ -2354,11 +2354,11 @@
         <v>4.6190476190476195</v>
       </c>
       <c r="V10" s="2">
-        <f>N10*0.7+U10*0.3</f>
+        <f t="shared" si="3"/>
         <v>4.8857142857142861</v>
       </c>
       <c r="W10" s="2">
-        <f>V10*0.7+U10*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.805714285714286</v>
       </c>
       <c r="X10" s="2"/>
@@ -2406,14 +2406,14 @@
         <v>5</v>
       </c>
       <c r="N11" s="2">
-        <f>L11/K11*M11</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O11" s="2">
         <v>5</v>
       </c>
       <c r="P11" s="2">
-        <f>N11*0.7+O11*0.3</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q11" s="2"/>
@@ -2431,11 +2431,11 @@
         <v>3.9047619047619051</v>
       </c>
       <c r="V11" s="2">
-        <f>N11*0.7+U11*0.3</f>
+        <f t="shared" si="3"/>
         <v>4.6714285714285717</v>
       </c>
       <c r="W11" s="2">
-        <f>V11*0.7+U11*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.4414285714285713</v>
       </c>
       <c r="X11" s="2"/>
@@ -2489,14 +2489,14 @@
         <v>4</v>
       </c>
       <c r="N12" s="2">
-        <f>L12/K12*M12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O12" s="2">
         <v>4</v>
       </c>
       <c r="P12" s="2">
-        <f>N12*0.7+O12*0.3</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q12" s="2"/>
@@ -2517,7 +2517,7 @@
         <v>3.7242424242424237</v>
       </c>
       <c r="W12" s="2">
-        <f>V12*0.7+U12*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.6887878787878785</v>
       </c>
       <c r="X12" s="2"/>
@@ -2570,14 +2570,14 @@
         <v>4</v>
       </c>
       <c r="N13" s="2">
-        <f>L13/K13*M13</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
       <c r="O13" s="2">
         <v>4.5</v>
       </c>
       <c r="P13" s="2">
-        <f>N13*0.7+O13*0.3</f>
+        <f t="shared" si="1"/>
         <v>3.59</v>
       </c>
       <c r="Q13" s="2"/>
@@ -2599,7 +2599,7 @@
         <v>3.2399999999999998</v>
       </c>
       <c r="W13" s="2">
-        <f>V13*0.7+U13*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.2679999999999998</v>
       </c>
       <c r="X13" s="2"/>
@@ -2652,14 +2652,14 @@
         <v>4</v>
       </c>
       <c r="N14" s="2">
-        <f>L14/K14*M14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O14" s="2">
         <v>4.5</v>
       </c>
       <c r="P14" s="2">
-        <f>N14*0.7+O14*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.1499999999999995</v>
       </c>
       <c r="Q14" s="2"/>
@@ -2681,7 +2681,7 @@
         <v>3.8249999999999997</v>
       </c>
       <c r="W14" s="2">
-        <f>V14*0.7+U14*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.7024999999999997</v>
       </c>
       <c r="X14" s="2"/>
@@ -2730,14 +2730,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>

--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90528DC1-A333-423F-9E14-F8C221B12E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="grupo" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grupo!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>CODIGO</t>
   </si>
@@ -313,12 +312,36 @@
   </si>
   <si>
     <t>0.7*FC+0.3*PROM</t>
+  </si>
+  <si>
+    <t>Criterios ABET</t>
+  </si>
+  <si>
+    <t>Nota 3</t>
+  </si>
+  <si>
+    <t>Check list</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Nota 4</t>
+  </si>
+  <si>
+    <t>FC2</t>
+  </si>
+  <si>
+    <t>QT2</t>
+  </si>
+  <si>
+    <t>Definitiva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -902,7 +925,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,67 +943,107 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1172,7 +1235,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1183,12 +1245,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1204,44 +1260,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:W14" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:W14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W15">
-    <sortCondition ref="B1:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AF14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="36">
+  <autoFilter ref="A1:AF14"/>
+  <sortState ref="A2:AC14">
+    <sortCondition ref="J1:J14"/>
   </sortState>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CODIGO"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="APELLIDOS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOMBRES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PLAN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DOC_IDENTIDAD"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CIUDAD"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CELULAR"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CORREO_UAO"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="TEL_OFI"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Grupo" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="TAC" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TC" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="QT" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="FC" dataDxfId="21">
+  <tableColumns count="32">
+    <tableColumn id="1" name="CODIGO"/>
+    <tableColumn id="2" name="APELLIDOS"/>
+    <tableColumn id="3" name="NOMBRES"/>
+    <tableColumn id="4" name="PLAN"/>
+    <tableColumn id="5" name="DOC_IDENTIDAD"/>
+    <tableColumn id="6" name="CIUDAD"/>
+    <tableColumn id="7" name="CELULAR"/>
+    <tableColumn id="8" name="CORREO_UAO"/>
+    <tableColumn id="9" name="TEL_OFI"/>
+    <tableColumn id="10" name="Grupo" dataDxfId="35"/>
+    <tableColumn id="11" name="TAC" dataDxfId="34"/>
+    <tableColumn id="12" name="TC" dataDxfId="33"/>
+    <tableColumn id="13" name="QT" dataDxfId="32"/>
+    <tableColumn id="14" name="FC" dataDxfId="31">
       <calculatedColumnFormula>L2/K2*M2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="FVL" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Nota 1" dataDxfId="19">
+    <tableColumn id="15" name="FVL" dataDxfId="30"/>
+    <tableColumn id="16" name="Nota 1" dataDxfId="29">
       <calculatedColumnFormula>N2*0.7+O2*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="CORTE 2" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="PREG" dataDxfId="17"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="PAR" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="PRES" dataDxfId="15"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="PROM" dataDxfId="14">
+    <tableColumn id="21" name="CORTE 2" dataDxfId="28"/>
+    <tableColumn id="20" name="PREG" dataDxfId="27"/>
+    <tableColumn id="19" name="PAR" dataDxfId="26"/>
+    <tableColumn id="23" name="PRES" dataDxfId="25"/>
+    <tableColumn id="25" name="PROM" dataDxfId="24">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="FC_" dataDxfId="13">
+    <tableColumn id="24" name="FC_" dataDxfId="23">
       <calculatedColumnFormula>N2*0.7+U2*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Nota 2" dataDxfId="12">
+    <tableColumn id="17" name="Nota 2" dataDxfId="10">
       <calculatedColumnFormula>V2*0.7+U2*0.3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" name="FC2" dataDxfId="4">
+      <calculatedColumnFormula>AVERAGE(P2,W2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="31" name="QT2" dataDxfId="3">
+      <calculatedColumnFormula>AVERAGE(X2,AA2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" name="Nota 3" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="Criterios ABET" dataDxfId="9"/>
+    <tableColumn id="27" name="Check list" dataDxfId="8"/>
+    <tableColumn id="28" name="Pitch" dataDxfId="7"/>
+    <tableColumn id="29" name="Concepto FVL" dataDxfId="6"/>
+    <tableColumn id="32" name="Nota 4" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC2*0.15+AD2*0.2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="Definitiva" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(P2,W2,Z2,AE2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1249,20 +1324,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="Z2:AA8" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="AK2:AL8" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Factor" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Explicación" dataDxfId="6"/>
+    <tableColumn id="1" name="Factor" dataDxfId="18"/>
+    <tableColumn id="2" name="Explicación" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table24" displayName="Table24" ref="Z11:AA17" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="AK11:AL17" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Factor" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Explicación" dataDxfId="0"/>
+    <tableColumn id="1" name="Factor" dataDxfId="12"/>
+    <tableColumn id="2" name="Explicación" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1530,112 +1605,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="4" max="4" width="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.28515625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="15" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="26" width="15" style="1" customWidth="1"/>
+    <col min="27" max="31" width="10.28515625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="63.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:38" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="11"/>
+      <c r="X1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2210787</v>
       </c>
@@ -1676,14 +1783,14 @@
         <v>4</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" ref="N2:N14" si="0">L2/K2*M2</f>
+        <f>L2/K2*M2</f>
         <v>4</v>
       </c>
       <c r="O2" s="2">
         <v>4</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="P2:P14" si="1">N2*0.7+O2*0.3</f>
+        <f>N2*0.7+O2*0.3</f>
         <v>4</v>
       </c>
       <c r="Q2" s="2"/>
@@ -1704,19 +1811,53 @@
         <v>3.024242424242424</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" ref="W2:W14" si="2">V2*0.7+U2*0.3</f>
+        <f>V2*0.7+U2*0.3</f>
         <v>2.8987878787878785</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="5" t="s">
+      <c r="X2" s="2">
+        <f t="shared" ref="X2:X14" si="0">AVERAGE(P2,W2)</f>
+        <v>3.4493939393939392</v>
+      </c>
+      <c r="Y2" s="2">
+        <f t="shared" ref="Y2:Y14" si="1">AVERAGE(X2,AA2)</f>
+        <v>3.9746969696969696</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>3.7120454545454544</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC2*0.15+AD2*0.2</f>
+        <v>4.1404999999999994</v>
+      </c>
+      <c r="AF2" s="2">
+        <f t="shared" ref="AF2:AF14" si="2">AVERAGE(P2,W2,Z2,AE2)</f>
+        <v>3.6878333333333329</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2175459</v>
       </c>
@@ -1758,14 +1899,14 @@
         <v>2.5</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" si="0"/>
+        <f>L3/K3*M3</f>
         <v>1.25</v>
       </c>
       <c r="O3" s="2">
         <v>4</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" si="1"/>
+        <f>N3*0.7+O3*0.3</f>
         <v>2.0750000000000002</v>
       </c>
       <c r="Q3" s="2"/>
@@ -1787,19 +1928,52 @@
         <v>0.875</v>
       </c>
       <c r="W3" s="2">
+        <f>V3*0.7+U3*0.3</f>
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC3*0.15+AD3*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
         <f t="shared" si="2"/>
-        <v>0.61249999999999993</v>
-      </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="3" t="s">
+        <v>0.671875</v>
+      </c>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2150912</v>
       </c>
@@ -1841,14 +2015,14 @@
         <v>3.8333333333333335</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="0"/>
+        <f>L4/K4*M4</f>
         <v>3.8333333333333335</v>
       </c>
       <c r="O4" s="2">
         <v>4</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="1"/>
+        <f>N4*0.7+O4*0.3</f>
         <v>3.8833333333333329</v>
       </c>
       <c r="Q4" s="2"/>
@@ -1869,184 +2043,277 @@
         <v>3.8227272727272728</v>
       </c>
       <c r="W4" s="2">
+        <f>V4*0.7+U4*0.3</f>
+        <v>3.8213636363636363</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8523484848484846</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1761742424242421</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>4.0142613636363631</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC4*0.15+AD4*0.2</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AF4" s="2">
         <f t="shared" si="2"/>
-        <v>3.8213636363636363</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="3" t="s">
+        <v>3.9647395833333334</v>
+      </c>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2175635</v>
+        <v>2190393</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>1002809479</v>
+        <v>1006491676</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>3218247588</v>
+        <v>3177268076</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>3218247588</v>
+        <v>3177268076</v>
       </c>
       <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="1">
-        <v>4</v>
-      </c>
       <c r="L5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" s="2">
+        <f>AVERAGE(5,3)</f>
         <v>4</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="0"/>
+        <f>L5/K5*M5</f>
         <v>4</v>
       </c>
       <c r="O5" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1499999999999995</v>
+        <f>N5*0.7+O5*0.3</f>
+        <v>4</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2">
         <v>5</v>
       </c>
       <c r="S5" s="2">
-        <v>4.875</v>
+        <v>3.8181818181818183</v>
       </c>
       <c r="T5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U5" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>4.625</v>
+        <v>3.606060606060606</v>
       </c>
       <c r="V5" s="2">
-        <f t="shared" ref="V5:V11" si="3">N5*0.7+U5*0.3</f>
-        <v>4.1875</v>
+        <v>3.7242424242424237</v>
       </c>
       <c r="W5" s="2">
+        <f>V5*0.7+U5*0.3</f>
+        <v>3.6887878787878785</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8443939393939393</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1721969696969694</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>4.0082954545454541</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC5*0.15+AD5*0.2</f>
+        <v>4.1404999999999994</v>
+      </c>
+      <c r="AF5" s="2">
         <f t="shared" si="2"/>
-        <v>4.3187499999999996</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="3" t="s">
+        <v>3.9593958333333328</v>
+      </c>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AL5" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2210274</v>
+        <v>2175635</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6">
-        <v>1007370882</v>
+        <v>1002809479</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>3045876257</v>
+        <v>3218247588</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I6">
-        <v>3045876257</v>
+        <v>3218247588</v>
       </c>
       <c r="J6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" s="2">
-        <f>AVERAGE(3.5,4.5)</f>
         <v>4</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="0"/>
+        <f>L6/K6*M6</f>
         <v>4</v>
       </c>
       <c r="O6" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="1"/>
-        <v>4.3</v>
+        <f>N6*0.7+O6*0.3</f>
+        <v>4.1499999999999995</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2">
         <v>5</v>
       </c>
       <c r="S6" s="2">
-        <v>4.7142857142857144</v>
+        <v>4.875</v>
       </c>
       <c r="T6" s="2">
         <v>4</v>
       </c>
       <c r="U6" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>4.5714285714285721</v>
+        <v>4.625</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="3"/>
-        <v>4.1714285714285717</v>
+        <f>N6*0.7+U6*0.3</f>
+        <v>4.1875</v>
       </c>
       <c r="W6" s="2">
+        <f>V6*0.7+U6*0.3</f>
+        <v>4.3187499999999996</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.234375</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="1"/>
+        <v>4.234375</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>4.234375</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC6*0.15+AD6*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
         <f t="shared" si="2"/>
-        <v>4.2914285714285718</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="3" t="s">
+        <v>3.17578125</v>
+      </c>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2206294</v>
       </c>
@@ -2087,14 +2354,14 @@
         <v>4</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="0"/>
+        <f>L7/K7*M7</f>
         <v>3</v>
       </c>
       <c r="O7" s="2">
         <v>4.5</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="1"/>
+        <f>N7*0.7+O7*0.3</f>
         <v>3.4499999999999993</v>
       </c>
       <c r="Q7" s="2"/>
@@ -2112,609 +2379,818 @@
         <v>4.291666666666667</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="3"/>
+        <f>N7*0.7+U7*0.3</f>
         <v>3.3874999999999997</v>
       </c>
       <c r="W7" s="2">
+        <f>V7*0.7+U7*0.3</f>
+        <v>3.6587499999999999</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5543749999999994</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5543749999999994</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>3.5543749999999994</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC7*0.15+AD7*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
         <f t="shared" si="2"/>
-        <v>3.6587499999999999</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="3" t="s">
+        <v>2.6657812499999993</v>
+      </c>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AL7" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2210261</v>
+        <v>2200006</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>1004540422</v>
+        <v>1004191308</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8">
+        <v>3184301578</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>3184301578</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2">
+        <f>L8/K8*M8</f>
+        <v>4</v>
+      </c>
+      <c r="O8" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="P8" s="2">
+        <f>N8*0.7+O8*0.3</f>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>4.875</v>
+      </c>
+      <c r="T8" s="2">
+        <v>4</v>
+      </c>
+      <c r="U8" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>3.2916666666666665</v>
+      </c>
+      <c r="V8" s="2">
+        <f>N8*0.7+U8*0.3</f>
+        <v>3.7874999999999996</v>
+      </c>
+      <c r="W8" s="2">
+        <f>V8*0.7+U8*0.3</f>
+        <v>3.6387499999999995</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8943749999999993</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8943749999999993</v>
+      </c>
+      <c r="Z8" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>3.8943749999999993</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC8*0.15+AD8*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9207812499999992</v>
+      </c>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2210078</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1126588397</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>3117129509</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9">
+        <v>3117129509</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2">
+        <f>L9/K9*M9</f>
+        <v>3.2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="P9" s="2">
+        <f>N9*0.7+O9*0.3</f>
+        <v>3.59</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2">
+        <v>2</v>
+      </c>
+      <c r="S9" s="2">
+        <v>5</v>
+      </c>
+      <c r="T9" s="2">
+        <v>3</v>
+      </c>
+      <c r="U9" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="V9" s="2">
+        <f>N9*0.7+U9*0.3</f>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="W9" s="2">
+        <f>V9*0.7+U9*0.3</f>
+        <v>3.2679999999999998</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC9*0.15+AD9*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5717499999999998</v>
+      </c>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2210166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1109920277</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>3133688323</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>3133688323</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2">
+        <f>L10/K10*M10</f>
+        <v>4</v>
+      </c>
+      <c r="O10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="P10" s="2">
+        <f>N10*0.7+O10*0.3</f>
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="S10" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="T10" s="2">
+        <v>4</v>
+      </c>
+      <c r="U10" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="V10" s="2">
+        <f>N10*0.7+U10*0.3</f>
+        <v>3.8249999999999997</v>
+      </c>
+      <c r="W10" s="2">
+        <f>V10*0.7+U10*0.3</f>
+        <v>3.7024999999999997</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9262499999999996</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9262499999999996</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>3.9262499999999996</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC10*0.15+AD10*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9446874999999997</v>
+      </c>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2210274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1007370882</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>3045876257</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11">
+        <v>3045876257</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2">
+        <f>AVERAGE(3.5,4.5)</f>
+        <v>4</v>
+      </c>
+      <c r="N11" s="2">
+        <f>L11/K11*M11</f>
+        <v>4</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5</v>
+      </c>
+      <c r="P11" s="2">
+        <f>N11*0.7+O11*0.3</f>
+        <v>4.3</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2">
+        <v>5</v>
+      </c>
+      <c r="S11" s="2">
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="T11" s="2">
+        <v>4</v>
+      </c>
+      <c r="U11" s="2">
+        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
+        <v>4.5714285714285721</v>
+      </c>
+      <c r="V11" s="2">
+        <f>N11*0.7+U11*0.3</f>
+        <v>4.1714285714285717</v>
+      </c>
+      <c r="W11" s="2">
+        <f>V11*0.7+U11*0.3</f>
+        <v>4.2914285714285718</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2957142857142863</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2957142857142863</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>4.2957142857142863</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC11*0.15+AD11*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2217857142857147</v>
+      </c>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2210261</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1004540422</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
         <v>3152372107</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H12" t="s">
         <v>51</v>
       </c>
-      <c r="I8">
+      <c r="I12">
         <v>3152372107</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J12" s="1">
         <v>3</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K12" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L12" s="1">
         <v>2</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M12" s="2">
         <f>AVERAGE(4.5,5)</f>
         <v>4.75</v>
       </c>
-      <c r="N8" s="2">
-        <f t="shared" si="0"/>
+      <c r="N12" s="2">
+        <f>L12/K12*M12</f>
         <v>4.75</v>
       </c>
-      <c r="O8" s="2">
-        <v>5</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="1"/>
+      <c r="O12" s="2">
+        <v>5</v>
+      </c>
+      <c r="P12" s="2">
+        <f>N12*0.7+O12*0.3</f>
         <v>4.8249999999999993</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2">
-        <v>5</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2">
+        <v>5</v>
+      </c>
+      <c r="S12" s="2">
         <v>4.8571428571428568</v>
       </c>
-      <c r="T8" s="2">
-        <v>5</v>
-      </c>
-      <c r="U8" s="2">
+      <c r="T12" s="2">
+        <v>5</v>
+      </c>
+      <c r="U12" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
         <v>4.9523809523809526</v>
       </c>
-      <c r="V8" s="2">
-        <f t="shared" si="3"/>
+      <c r="V12" s="2">
+        <f>N12*0.7+U12*0.3</f>
         <v>4.8107142857142851</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W12" s="2">
+        <f>V12*0.7+U12*0.3</f>
+        <v>4.8532142857142855</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8391071428571424</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8391071428571424</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>4.8391071428571424</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC12*0.15+AD12*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
         <f t="shared" si="2"/>
-        <v>4.8532142857142855</v>
-      </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>68</v>
+        <v>3.629330357142857</v>
+      </c>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2200006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2211617</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>1004191308</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9">
-        <v>3184301578</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9">
-        <v>3184301578</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="E13">
+        <v>1078457604</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13">
+        <v>3144252423</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13">
+        <v>3144252423</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="1">
-        <v>4</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2">
-        <v>4</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O9" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1499999999999995</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>4.875</v>
-      </c>
-      <c r="T9" s="2">
-        <v>4</v>
-      </c>
-      <c r="U9" s="2">
-        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>3.2916666666666665</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" si="3"/>
-        <v>3.7874999999999996</v>
-      </c>
-      <c r="W9" s="2">
-        <f t="shared" si="2"/>
-        <v>3.6387499999999995</v>
-      </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2211617</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>1078457604</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10">
-        <v>3144252423</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10">
-        <v>3144252423</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="L13" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="1">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="M13" s="2">
         <f>AVERAGE(5,5)</f>
         <v>5</v>
       </c>
-      <c r="N10" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O10" s="2">
-        <v>5</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2">
-        <v>4</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="N13" s="2">
+        <f>L13/K13*M13</f>
+        <v>5</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5</v>
+      </c>
+      <c r="P13" s="2">
+        <f>N13*0.7+O13*0.3</f>
+        <v>5</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2">
+        <v>4</v>
+      </c>
+      <c r="S13" s="2">
         <v>4.8571428571428568</v>
       </c>
-      <c r="T10" s="2">
-        <v>5</v>
-      </c>
-      <c r="U10" s="2">
+      <c r="T13" s="2">
+        <v>5</v>
+      </c>
+      <c r="U13" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
         <v>4.6190476190476195</v>
       </c>
-      <c r="V10" s="2">
-        <f t="shared" si="3"/>
+      <c r="V13" s="2">
+        <f>N13*0.7+U13*0.3</f>
         <v>4.8857142857142861</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W13" s="2">
+        <f>V13*0.7+U13*0.3</f>
+        <v>4.805714285714286</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="0"/>
+        <v>4.902857142857143</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.902857142857143</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>4.902857142857143</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC13*0.15+AD13*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2">
         <f t="shared" si="2"/>
-        <v>4.805714285714286</v>
-      </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+        <v>3.677142857142857</v>
+      </c>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2210940</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>1005784498</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="G11">
+      <c r="G14">
         <v>3005919525</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H14" t="s">
         <v>59</v>
       </c>
-      <c r="I11">
+      <c r="I14">
         <v>3005919525</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J14" s="1">
         <v>3</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K14" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L14" s="1">
         <v>2</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M14" s="2">
         <f>AVERAGE(5,5)</f>
         <v>5</v>
       </c>
-      <c r="N11" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O11" s="2">
-        <v>5</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2">
+      <c r="N14" s="2">
+        <f>L14/K14*M14</f>
+        <v>5</v>
+      </c>
+      <c r="O14" s="2">
+        <v>5</v>
+      </c>
+      <c r="P14" s="2">
+        <f>N14*0.7+O14*0.3</f>
+        <v>5</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2">
         <v>3</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S14" s="2">
         <v>4.7142857142857144</v>
       </c>
-      <c r="T11" s="2">
-        <v>4</v>
-      </c>
-      <c r="U11" s="2">
+      <c r="T14" s="2">
+        <v>4</v>
+      </c>
+      <c r="U14" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
         <v>3.9047619047619051</v>
       </c>
-      <c r="V11" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6714285714285717</v>
-      </c>
-      <c r="W11" s="2">
-        <f t="shared" si="2"/>
-        <v>4.4414285714285713</v>
-      </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2190393</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>1006491676</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12">
-        <v>3177268076</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12">
-        <v>3177268076</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>2</v>
-      </c>
-      <c r="M12" s="2">
-        <f>AVERAGE(5,3)</f>
-        <v>4</v>
-      </c>
-      <c r="N12" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O12" s="2">
-        <v>4</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2">
-        <v>5</v>
-      </c>
-      <c r="S12" s="2">
-        <v>3.8181818181818183</v>
-      </c>
-      <c r="T12" s="2">
-        <v>2</v>
-      </c>
-      <c r="U12" s="2">
-        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>3.606060606060606</v>
-      </c>
-      <c r="V12" s="2">
-        <v>3.7242424242424237</v>
-      </c>
-      <c r="W12" s="2">
-        <f t="shared" si="2"/>
-        <v>3.6887878787878785</v>
-      </c>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2210078</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>1126588397</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13">
-        <v>3117129509</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13">
-        <v>3117129509</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-      <c r="L13" s="1">
-        <v>4</v>
-      </c>
-      <c r="M13" s="2">
-        <v>4</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="O13" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="1"/>
-        <v>3.59</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2">
-        <v>2</v>
-      </c>
-      <c r="S13" s="2">
-        <v>5</v>
-      </c>
-      <c r="T13" s="2">
-        <v>3</v>
-      </c>
-      <c r="U13" s="2">
-        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="V13" s="2">
-        <f>N13*0.7+U13*0.3</f>
-        <v>3.2399999999999998</v>
-      </c>
-      <c r="W13" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2679999999999998</v>
-      </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2210166</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>1109920277</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14">
-        <v>3133688323</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14">
-        <v>3133688323</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1">
-        <v>5</v>
-      </c>
-      <c r="L14" s="1">
-        <v>5</v>
-      </c>
-      <c r="M14" s="2">
-        <v>4</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O14" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1499999999999995</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="S14" s="2">
-        <v>4.75</v>
-      </c>
-      <c r="T14" s="2">
-        <v>4</v>
-      </c>
-      <c r="U14" s="2">
-        <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>3.4166666666666665</v>
-      </c>
       <c r="V14" s="2">
         <f>N14*0.7+U14*0.3</f>
-        <v>3.8249999999999997</v>
+        <v>4.6714285714285717</v>
       </c>
       <c r="W14" s="2">
+        <f>V14*0.7+U14*0.3</f>
+        <v>4.4414285714285713</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7207142857142852</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7207142857142852</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
+        <v>4.7207142857142852</v>
+      </c>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2">
+        <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC14*0.15+AD14*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2">
         <f t="shared" si="2"/>
-        <v>3.7024999999999997</v>
-      </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="3" t="s">
+        <v>3.5405357142857139</v>
+      </c>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA14" s="4" t="s">
+      <c r="AL14" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z15" s="3" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AL15" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Z16" s="3" t="s">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AL16" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="Z17" s="7" t="s">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="AK17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AA17" s="8" t="s">
+      <c r="AL17" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2730,14 +3206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
@@ -2747,7 +3223,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C1" t="s">
@@ -2761,109 +3237,109 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="13">
-        <v>5</v>
-      </c>
-      <c r="C2" s="13">
-        <v>5</v>
-      </c>
-      <c r="D2" s="13">
-        <v>5</v>
-      </c>
-      <c r="E2" s="13">
-        <v>5</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="B2" s="10">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
-        <v>5</v>
-      </c>
-      <c r="C3" s="12">
-        <v>5</v>
-      </c>
-      <c r="D3" s="12">
-        <v>5</v>
-      </c>
-      <c r="E3" s="12">
-        <v>5</v>
-      </c>
-      <c r="F3" s="12"/>
+      <c r="B3" s="9">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
-        <v>4</v>
-      </c>
-      <c r="C4" s="13">
-        <v>4</v>
-      </c>
-      <c r="D4" s="13">
-        <v>4</v>
-      </c>
-      <c r="E4" s="13">
-        <v>4</v>
-      </c>
-      <c r="F4" s="13"/>
+      <c r="B4" s="10">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12">
-        <v>5</v>
-      </c>
-      <c r="E5" s="12">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12"/>
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13">
-        <v>4</v>
-      </c>
-      <c r="D6" s="13">
-        <v>4</v>
-      </c>
-      <c r="E6" s="13">
-        <v>5</v>
-      </c>
-      <c r="F6" s="13"/>
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12">
-        <v>5</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12"/>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13">
-        <v>5</v>
-      </c>
-      <c r="D8" s="13">
-        <v>5</v>
-      </c>
-      <c r="E8" s="13">
-        <v>5</v>
-      </c>
-      <c r="F8" s="13"/>
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -2884,7 +3360,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C11">

--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -1262,7 +1262,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AF14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="36">
   <autoFilter ref="A1:AF14"/>
-  <sortState ref="A2:AC14">
+  <sortState ref="A2:AF14">
     <sortCondition ref="J1:J14"/>
   </sortState>
   <tableColumns count="32">
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11:AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,11 +1815,11 @@
         <v>2.8987878787878785</v>
       </c>
       <c r="X2" s="2">
-        <f t="shared" ref="X2:X14" si="0">AVERAGE(P2,W2)</f>
+        <f>AVERAGE(P2,W2)</f>
         <v>3.4493939393939392</v>
       </c>
       <c r="Y2" s="2">
-        <f t="shared" ref="Y2:Y14" si="1">AVERAGE(X2,AA2)</f>
+        <f>AVERAGE(X2,AA2)</f>
         <v>3.9746969696969696</v>
       </c>
       <c r="Z2" s="2">
@@ -1843,7 +1843,7 @@
         <v>4.1404999999999994</v>
       </c>
       <c r="AF2" s="2">
-        <f t="shared" ref="AF2:AF14" si="2">AVERAGE(P2,W2,Z2,AE2)</f>
+        <f>AVERAGE(P2,W2,Z2,AE2)</f>
         <v>3.6878333333333329</v>
       </c>
       <c r="AG2" s="2"/>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(X3,AA3)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="2">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(P3,W3,Z3,AE3)</f>
         <v>0.671875</v>
       </c>
       <c r="AG3" s="2"/>
@@ -2047,11 +2047,11 @@
         <v>3.8213636363636363</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P4,W4)</f>
         <v>3.8523484848484846</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(X4,AA4)</f>
         <v>4.1761742424242421</v>
       </c>
       <c r="Z4" s="2">
@@ -2075,7 +2075,7 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="AF4" s="2">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(P4,W4,Z4,AE4)</f>
         <v>3.9647395833333334</v>
       </c>
       <c r="AG4" s="2"/>
@@ -2163,11 +2163,11 @@
         <v>3.6887878787878785</v>
       </c>
       <c r="X5" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P5,W5)</f>
         <v>3.8443939393939393</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(X5,AA5)</f>
         <v>4.1721969696969694</v>
       </c>
       <c r="Z5" s="2">
@@ -2191,7 +2191,7 @@
         <v>4.1404999999999994</v>
       </c>
       <c r="AF5" s="2">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(P5,W5,Z5,AE5)</f>
         <v>3.9593958333333328</v>
       </c>
       <c r="AG5" s="2"/>
@@ -2279,11 +2279,11 @@
         <v>4.3187499999999996</v>
       </c>
       <c r="X6" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P6,W6)</f>
         <v>4.234375</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(X6,AA6)</f>
         <v>4.234375</v>
       </c>
       <c r="Z6" s="2">
@@ -2293,14 +2293,16 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
+      <c r="AD6" s="2">
+        <v>3.8</v>
+      </c>
       <c r="AE6" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC6*0.15+AD6*0.2</f>
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="AF6" s="2">
-        <f t="shared" si="2"/>
-        <v>3.17578125</v>
+        <f>AVERAGE(P6,W6,Z6,AE6)</f>
+        <v>3.3657812499999999</v>
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -2387,11 +2389,11 @@
         <v>3.6587499999999999</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P7,W7)</f>
         <v>3.5543749999999994</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(X7,AA7)</f>
         <v>3.5543749999999994</v>
       </c>
       <c r="Z7" s="2">
@@ -2401,14 +2403,16 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
+      <c r="AD7" s="2">
+        <v>3.8</v>
+      </c>
       <c r="AE7" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC7*0.15+AD7*0.2</f>
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="AF7" s="2">
-        <f t="shared" si="2"/>
-        <v>2.6657812499999993</v>
+        <f>AVERAGE(P7,W7,Z7,AE7)</f>
+        <v>2.8557812499999993</v>
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -2495,11 +2499,11 @@
         <v>3.6387499999999995</v>
       </c>
       <c r="X8" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P8,W8)</f>
         <v>3.8943749999999993</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(X8,AA8)</f>
         <v>3.8943749999999993</v>
       </c>
       <c r="Z8" s="2">
@@ -2509,14 +2513,16 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
+      <c r="AD8" s="2">
+        <v>3.8</v>
+      </c>
       <c r="AE8" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC8*0.15+AD8*0.2</f>
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="AF8" s="2">
-        <f t="shared" si="2"/>
-        <v>2.9207812499999992</v>
+        <f>AVERAGE(P8,W8,Z8,AE8)</f>
+        <v>3.1107812499999992</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -2603,11 +2609,11 @@
         <v>3.2679999999999998</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P9,W9)</f>
         <v>3.4289999999999998</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(X9,AA9)</f>
         <v>3.4289999999999998</v>
       </c>
       <c r="Z9" s="2">
@@ -2617,14 +2623,16 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
+      <c r="AD9" s="2">
+        <v>3.8</v>
+      </c>
       <c r="AE9" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC9*0.15+AD9*0.2</f>
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="AF9" s="2">
-        <f t="shared" si="2"/>
-        <v>2.5717499999999998</v>
+        <f>AVERAGE(P9,W9,Z9,AE9)</f>
+        <v>2.7617499999999997</v>
       </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2705,11 +2713,11 @@
         <v>3.7024999999999997</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P10,W10)</f>
         <v>3.9262499999999996</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(X10,AA10)</f>
         <v>3.9262499999999996</v>
       </c>
       <c r="Z10" s="2">
@@ -2719,14 +2727,16 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
+      <c r="AD10" s="2">
+        <v>3.8</v>
+      </c>
       <c r="AE10" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC10*0.15+AD10*0.2</f>
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="AF10" s="2">
-        <f t="shared" si="2"/>
-        <v>2.9446874999999997</v>
+        <f>AVERAGE(P10,W10,Z10,AE10)</f>
+        <v>3.1346874999999996</v>
       </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2808,28 +2818,36 @@
         <v>4.2914285714285718</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P11,W11)</f>
         <v>4.2957142857142863</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="1"/>
-        <v>4.2957142857142863</v>
+        <f>AVERAGE(X11,AA11)</f>
+        <v>4.5978571428571433</v>
       </c>
       <c r="Z11" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>4.2957142857142863</v>
-      </c>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
+        <v>4.4467857142857152</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>4.2</v>
+      </c>
       <c r="AE11" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC11*0.15+AD11*0.2</f>
-        <v>0</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="AF11" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2217857142857147</v>
+        <f>AVERAGE(P11,W11,Z11,AE11)</f>
+        <v>4.4320535714285718</v>
       </c>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2917,28 +2935,36 @@
         <v>4.8532142857142855</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P12,W12)</f>
         <v>4.8391071428571424</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="1"/>
-        <v>4.8391071428571424</v>
+        <f>AVERAGE(X12,AA12)</f>
+        <v>4.8695535714285718</v>
       </c>
       <c r="Z12" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>4.8391071428571424</v>
-      </c>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
+        <v>4.8543303571428567</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>4.2</v>
+      </c>
       <c r="AE12" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC12*0.15+AD12*0.2</f>
-        <v>0</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="AF12" s="2">
-        <f t="shared" si="2"/>
-        <v>3.629330357142857</v>
+        <f>AVERAGE(P12,W12,Z12,AE12)</f>
+        <v>4.8056361607142852</v>
       </c>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3026,28 +3052,36 @@
         <v>4.805714285714286</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P13,W13)</f>
         <v>4.902857142857143</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="1"/>
-        <v>4.902857142857143</v>
+        <f>AVERAGE(X13,AA13)</f>
+        <v>4.9014285714285712</v>
       </c>
       <c r="Z13" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>4.902857142857143</v>
-      </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
+        <v>4.9021428571428576</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>4.2</v>
+      </c>
       <c r="AE13" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC13*0.15+AD13*0.2</f>
-        <v>0</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="AF13" s="2">
-        <f t="shared" si="2"/>
-        <v>3.677142857142857</v>
+        <f>AVERAGE(P13,W13,Z13,AE13)</f>
+        <v>4.8494642857142853</v>
       </c>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3135,28 +3169,36 @@
         <v>4.4414285714285713</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P14,W14)</f>
         <v>4.7207142857142852</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7207142857142852</v>
+        <f>AVERAGE(X14,AA14)</f>
+        <v>4.8103571428571428</v>
       </c>
       <c r="Z14" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>4.7207142857142852</v>
-      </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
+        <v>4.765535714285714</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>4.2</v>
+      </c>
       <c r="AE14" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC14*0.15+AD14*0.2</f>
-        <v>0</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="AF14" s="2">
-        <f t="shared" si="2"/>
-        <v>3.5405357142857139</v>
+        <f>AVERAGE(P14,W14,Z14,AE14)</f>
+        <v>4.7242410714285707</v>
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>

--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -1263,7 +1263,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AF14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="36">
   <autoFilter ref="A1:AF14"/>
   <sortState ref="A2:AF14">
-    <sortCondition ref="J1:J14"/>
+    <sortCondition ref="B1:B14"/>
   </sortState>
   <tableColumns count="32">
     <tableColumn id="1" name="CODIGO"/>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11:AC14"/>
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,14 +1820,14 @@
       </c>
       <c r="Y2" s="2">
         <f>AVERAGE(X2,AA2)</f>
-        <v>3.9746969696969696</v>
+        <v>3.8746969696969695</v>
       </c>
       <c r="Z2" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>3.7120454545454544</v>
+        <v>3.6620454545454546</v>
       </c>
       <c r="AA2" s="2">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AB2" s="2">
         <v>4.8099999999999996</v>
@@ -1840,11 +1840,11 @@
       </c>
       <c r="AE2" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC2*0.15+AD2*0.2</f>
-        <v>4.1404999999999994</v>
+        <v>4.0205000000000002</v>
       </c>
       <c r="AF2" s="2">
         <f>AVERAGE(P2,W2,Z2,AE2)</f>
-        <v>3.6878333333333329</v>
+        <v>3.6453333333333333</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -2052,14 +2052,14 @@
       </c>
       <c r="Y4" s="2">
         <f>AVERAGE(X4,AA4)</f>
-        <v>4.1761742424242421</v>
+        <v>4.0761742424242424</v>
       </c>
       <c r="Z4" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>4.0142613636363631</v>
+        <v>3.9642613636363633</v>
       </c>
       <c r="AA4" s="2">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AB4" s="2">
         <v>4.8</v>
@@ -2072,11 +2072,11 @@
       </c>
       <c r="AE4" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC4*0.15+AD4*0.2</f>
-        <v>4.1399999999999997</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="AF4" s="2">
         <f>AVERAGE(P4,W4,Z4,AE4)</f>
-        <v>3.9647395833333334</v>
+        <v>3.922239583333333</v>
       </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -2091,43 +2091,42 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2190393</v>
+        <v>2175635</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>1006491676</v>
+        <v>1002809479</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>3177268076</v>
+        <v>3218247588</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I5">
-        <v>3177268076</v>
+        <v>3218247588</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" s="2">
-        <f>AVERAGE(5,3)</f>
         <v>4</v>
       </c>
       <c r="N5" s="2">
@@ -2135,64 +2134,65 @@
         <v>4</v>
       </c>
       <c r="O5" s="2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P5" s="2">
         <f>N5*0.7+O5*0.3</f>
-        <v>4</v>
+        <v>4.1499999999999995</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2">
         <v>5</v>
       </c>
       <c r="S5" s="2">
-        <v>3.8181818181818183</v>
+        <v>4.875</v>
       </c>
       <c r="T5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U5" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>3.606060606060606</v>
+        <v>4.625</v>
       </c>
       <c r="V5" s="2">
-        <v>3.7242424242424237</v>
+        <f>N5*0.7+U5*0.3</f>
+        <v>4.1875</v>
       </c>
       <c r="W5" s="2">
         <f>V5*0.7+U5*0.3</f>
-        <v>3.6887878787878785</v>
+        <v>4.3187499999999996</v>
       </c>
       <c r="X5" s="2">
         <f>AVERAGE(P5,W5)</f>
-        <v>3.8443939393939393</v>
+        <v>4.234375</v>
       </c>
       <c r="Y5" s="2">
         <f>AVERAGE(X5,AA5)</f>
-        <v>4.1721969696969694</v>
+        <v>4.3671875</v>
       </c>
       <c r="Z5" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>4.0082954545454541</v>
+        <v>4.30078125</v>
       </c>
       <c r="AA5" s="2">
         <v>4.5</v>
       </c>
       <c r="AB5" s="2">
-        <v>4.8099999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="AC5" s="2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AD5" s="2">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="AE5" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC5*0.15+AD5*0.2</f>
-        <v>4.1404999999999994</v>
+        <v>4.3699999999999992</v>
       </c>
       <c r="AF5" s="2">
         <f>AVERAGE(P5,W5,Z5,AE5)</f>
-        <v>3.9593958333333328</v>
+        <v>4.2848828124999994</v>
       </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -2207,42 +2207,43 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2175635</v>
+        <v>2210274</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6">
-        <v>1002809479</v>
+        <v>1007370882</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>3218247588</v>
+        <v>3045876257</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I6">
-        <v>3218247588</v>
+        <v>3045876257</v>
       </c>
       <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="1">
-        <v>4</v>
-      </c>
       <c r="L6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" s="2">
+        <f>AVERAGE(3.5,4.5)</f>
         <v>4</v>
       </c>
       <c r="N6" s="2">
@@ -2250,59 +2251,65 @@
         <v>4</v>
       </c>
       <c r="O6" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P6" s="2">
         <f>N6*0.7+O6*0.3</f>
-        <v>4.1499999999999995</v>
+        <v>4.3</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2">
         <v>5</v>
       </c>
       <c r="S6" s="2">
-        <v>4.875</v>
+        <v>4.7142857142857144</v>
       </c>
       <c r="T6" s="2">
         <v>4</v>
       </c>
       <c r="U6" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>4.625</v>
+        <v>4.5714285714285721</v>
       </c>
       <c r="V6" s="2">
         <f>N6*0.7+U6*0.3</f>
-        <v>4.1875</v>
+        <v>4.1714285714285717</v>
       </c>
       <c r="W6" s="2">
         <f>V6*0.7+U6*0.3</f>
-        <v>4.3187499999999996</v>
+        <v>4.2914285714285718</v>
       </c>
       <c r="X6" s="2">
         <f>AVERAGE(P6,W6)</f>
-        <v>4.234375</v>
+        <v>4.2957142857142863</v>
       </c>
       <c r="Y6" s="2">
         <f>AVERAGE(X6,AA6)</f>
-        <v>4.234375</v>
+        <v>4.5978571428571433</v>
       </c>
       <c r="Z6" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>4.234375</v>
-      </c>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
+        <v>4.4467857142857152</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>4.5</v>
+      </c>
       <c r="AD6" s="2">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AE6" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC6*0.15+AD6*0.2</f>
-        <v>0.76</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="AF6" s="2">
         <f>AVERAGE(P6,W6,Z6,AE6)</f>
-        <v>3.3657812499999999</v>
+        <v>4.4320535714285718</v>
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -2394,25 +2401,31 @@
       </c>
       <c r="Y7" s="2">
         <f>AVERAGE(X7,AA7)</f>
-        <v>3.5543749999999994</v>
+        <v>4.0271875000000001</v>
       </c>
       <c r="Z7" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>3.5543749999999994</v>
-      </c>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
+        <v>3.7907812499999998</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>4.5</v>
+      </c>
       <c r="AD7" s="2">
         <v>3.8</v>
       </c>
       <c r="AE7" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC7*0.15+AD7*0.2</f>
-        <v>0.76</v>
+        <v>4.3699999999999992</v>
       </c>
       <c r="AF7" s="2">
         <f>AVERAGE(P7,W7,Z7,AE7)</f>
-        <v>2.8557812499999993</v>
+        <v>3.8173828124999996</v>
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -2427,102 +2440,109 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2200006</v>
+        <v>2210261</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>1004191308</v>
+        <v>1004540422</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8">
-        <v>3184301578</v>
+        <v>3152372107</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I8">
-        <v>3184301578</v>
+        <v>3152372107</v>
       </c>
       <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="1">
-        <v>4</v>
-      </c>
       <c r="L8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" s="2">
-        <v>4</v>
+        <f>AVERAGE(4.5,5)</f>
+        <v>4.75</v>
       </c>
       <c r="N8" s="2">
         <f>L8/K8*M8</f>
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O8" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P8" s="2">
         <f>N8*0.7+O8*0.3</f>
-        <v>4.1499999999999995</v>
+        <v>4.8249999999999993</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S8" s="2">
-        <v>4.875</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="T8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U8" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>3.2916666666666665</v>
+        <v>4.9523809523809526</v>
       </c>
       <c r="V8" s="2">
         <f>N8*0.7+U8*0.3</f>
-        <v>3.7874999999999996</v>
+        <v>4.8107142857142851</v>
       </c>
       <c r="W8" s="2">
         <f>V8*0.7+U8*0.3</f>
-        <v>3.6387499999999995</v>
+        <v>4.8532142857142855</v>
       </c>
       <c r="X8" s="2">
         <f>AVERAGE(P8,W8)</f>
-        <v>3.8943749999999993</v>
+        <v>4.8391071428571424</v>
       </c>
       <c r="Y8" s="2">
         <f>AVERAGE(X8,AA8)</f>
-        <v>3.8943749999999993</v>
+        <v>4.8695535714285718</v>
       </c>
       <c r="Z8" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>3.8943749999999993</v>
-      </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
+        <v>4.8543303571428567</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>4.5</v>
+      </c>
       <c r="AD8" s="2">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AE8" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC8*0.15+AD8*0.2</f>
-        <v>0.76</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="AF8" s="2">
         <f>AVERAGE(P8,W8,Z8,AE8)</f>
-        <v>3.1107812499999992</v>
+        <v>4.8056361607142852</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -2537,37 +2557,37 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2210078</v>
+        <v>2200006</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9">
-        <v>1126588397</v>
+        <v>1004191308</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>3117129509</v>
+        <v>3184301578</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I9">
-        <v>3117129509</v>
+        <v>3184301578</v>
       </c>
       <c r="J9" s="1">
         <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" s="1">
         <v>4</v>
@@ -2577,62 +2597,68 @@
       </c>
       <c r="N9" s="2">
         <f>L9/K9*M9</f>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O9" s="2">
         <v>4.5</v>
       </c>
       <c r="P9" s="2">
         <f>N9*0.7+O9*0.3</f>
-        <v>3.59</v>
+        <v>4.1499999999999995</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2">
-        <v>5</v>
+        <v>4.875</v>
       </c>
       <c r="T9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U9" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>3.3333333333333335</v>
+        <v>3.2916666666666665</v>
       </c>
       <c r="V9" s="2">
         <f>N9*0.7+U9*0.3</f>
-        <v>3.2399999999999998</v>
+        <v>3.7874999999999996</v>
       </c>
       <c r="W9" s="2">
         <f>V9*0.7+U9*0.3</f>
-        <v>3.2679999999999998</v>
+        <v>3.6387499999999995</v>
       </c>
       <c r="X9" s="2">
         <f>AVERAGE(P9,W9)</f>
-        <v>3.4289999999999998</v>
+        <v>3.8943749999999993</v>
       </c>
       <c r="Y9" s="2">
         <f>AVERAGE(X9,AA9)</f>
-        <v>3.4289999999999998</v>
+        <v>4.1971875000000001</v>
       </c>
       <c r="Z9" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>3.4289999999999998</v>
-      </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
+        <v>4.0457812499999992</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>4.5</v>
+      </c>
       <c r="AD9" s="2">
         <v>3.8</v>
       </c>
       <c r="AE9" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC9*0.15+AD9*0.2</f>
-        <v>0.76</v>
+        <v>4.3699999999999992</v>
       </c>
       <c r="AF9" s="2">
         <f>AVERAGE(P9,W9,Z9,AE9)</f>
-        <v>2.7617499999999997</v>
+        <v>4.0511328124999988</v>
       </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2641,102 +2667,109 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2210166</v>
+        <v>2211617</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10">
-        <v>1109920277</v>
+        <v>1078457604</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G10">
-        <v>3133688323</v>
+        <v>3144252423</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I10">
-        <v>3133688323</v>
+        <v>3144252423</v>
       </c>
       <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="1">
-        <v>5</v>
-      </c>
       <c r="L10" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10" s="2">
-        <v>4</v>
+        <f>AVERAGE(5,5)</f>
+        <v>5</v>
       </c>
       <c r="N10" s="2">
         <f>L10/K10*M10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O10" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P10" s="2">
         <f>N10*0.7+O10*0.3</f>
-        <v>4.1499999999999995</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="S10" s="2">
-        <v>4.75</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="T10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U10" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>3.4166666666666665</v>
+        <v>4.6190476190476195</v>
       </c>
       <c r="V10" s="2">
         <f>N10*0.7+U10*0.3</f>
-        <v>3.8249999999999997</v>
+        <v>4.8857142857142861</v>
       </c>
       <c r="W10" s="2">
         <f>V10*0.7+U10*0.3</f>
-        <v>3.7024999999999997</v>
+        <v>4.805714285714286</v>
       </c>
       <c r="X10" s="2">
         <f>AVERAGE(P10,W10)</f>
-        <v>3.9262499999999996</v>
+        <v>4.902857142857143</v>
       </c>
       <c r="Y10" s="2">
         <f>AVERAGE(X10,AA10)</f>
-        <v>3.9262499999999996</v>
+        <v>4.9014285714285712</v>
       </c>
       <c r="Z10" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>3.9262499999999996</v>
-      </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
+        <v>4.9021428571428576</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>4.5</v>
+      </c>
       <c r="AD10" s="2">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AE10" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC10*0.15+AD10*0.2</f>
-        <v>0.76</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="AF10" s="2">
         <f>AVERAGE(P10,W10,Z10,AE10)</f>
-        <v>3.1346874999999996</v>
+        <v>4.8494642857142853</v>
       </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2745,31 +2778,31 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2210274</v>
+        <v>2210940</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11">
-        <v>1007370882</v>
+        <v>1005784498</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G11">
-        <v>3045876257</v>
+        <v>3005919525</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I11">
-        <v>3045876257</v>
+        <v>3005919525</v>
       </c>
       <c r="J11" s="1">
         <v>3</v>
@@ -2781,23 +2814,23 @@
         <v>2</v>
       </c>
       <c r="M11" s="2">
-        <f>AVERAGE(3.5,4.5)</f>
-        <v>4</v>
+        <f>AVERAGE(5,5)</f>
+        <v>5</v>
       </c>
       <c r="N11" s="2">
         <f>L11/K11*M11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O11" s="2">
         <v>5</v>
       </c>
       <c r="P11" s="2">
         <f>N11*0.7+O11*0.3</f>
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11" s="2">
         <v>4.7142857142857144</v>
@@ -2807,27 +2840,27 @@
       </c>
       <c r="U11" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>4.5714285714285721</v>
+        <v>3.9047619047619051</v>
       </c>
       <c r="V11" s="2">
         <f>N11*0.7+U11*0.3</f>
-        <v>4.1714285714285717</v>
+        <v>4.6714285714285717</v>
       </c>
       <c r="W11" s="2">
         <f>V11*0.7+U11*0.3</f>
-        <v>4.2914285714285718</v>
+        <v>4.4414285714285713</v>
       </c>
       <c r="X11" s="2">
         <f>AVERAGE(P11,W11)</f>
-        <v>4.2957142857142863</v>
+        <v>4.7207142857142852</v>
       </c>
       <c r="Y11" s="2">
         <f>AVERAGE(X11,AA11)</f>
-        <v>4.5978571428571433</v>
+        <v>4.8103571428571428</v>
       </c>
       <c r="Z11" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>4.4467857142857152</v>
+        <v>4.765535714285714</v>
       </c>
       <c r="AA11" s="2">
         <v>4.9000000000000004</v>
@@ -2847,7 +2880,7 @@
       </c>
       <c r="AF11" s="2">
         <f>AVERAGE(P11,W11,Z11,AE11)</f>
-        <v>4.4320535714285718</v>
+        <v>4.7242410714285707</v>
       </c>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2862,34 +2895,34 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2210261</v>
+        <v>2190393</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12">
-        <v>1004540422</v>
+        <v>1006491676</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>3152372107</v>
+        <v>3177268076</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I12">
-        <v>3152372107</v>
+        <v>3177268076</v>
       </c>
       <c r="J12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
@@ -2898,73 +2931,72 @@
         <v>2</v>
       </c>
       <c r="M12" s="2">
-        <f>AVERAGE(4.5,5)</f>
-        <v>4.75</v>
+        <f>AVERAGE(5,3)</f>
+        <v>4</v>
       </c>
       <c r="N12" s="2">
         <f>L12/K12*M12</f>
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P12" s="2">
         <f>N12*0.7+O12*0.3</f>
-        <v>4.8249999999999993</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2">
         <v>5</v>
       </c>
       <c r="S12" s="2">
-        <v>4.8571428571428568</v>
+        <v>3.8181818181818183</v>
       </c>
       <c r="T12" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U12" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>4.9523809523809526</v>
+        <v>3.606060606060606</v>
       </c>
       <c r="V12" s="2">
-        <f>N12*0.7+U12*0.3</f>
-        <v>4.8107142857142851</v>
+        <v>3.7242424242424237</v>
       </c>
       <c r="W12" s="2">
         <f>V12*0.7+U12*0.3</f>
-        <v>4.8532142857142855</v>
+        <v>3.6887878787878785</v>
       </c>
       <c r="X12" s="2">
         <f>AVERAGE(P12,W12)</f>
-        <v>4.8391071428571424</v>
+        <v>3.8443939393939393</v>
       </c>
       <c r="Y12" s="2">
         <f>AVERAGE(X12,AA12)</f>
-        <v>4.8695535714285718</v>
+        <v>4.0721969696969698</v>
       </c>
       <c r="Z12" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>4.8543303571428567</v>
+        <v>3.9582954545454543</v>
       </c>
       <c r="AA12" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AB12" s="2">
-        <v>4.7</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="AC12" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AD12" s="2">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC12*0.15+AD12*0.2</f>
-        <v>4.6899999999999995</v>
+        <v>4.0205000000000002</v>
       </c>
       <c r="AF12" s="2">
         <f>AVERAGE(P12,W12,Z12,AE12)</f>
-        <v>4.8056361607142852</v>
+        <v>3.9168958333333332</v>
       </c>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -2979,92 +3011,91 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2211617</v>
+        <v>2210078</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13">
-        <v>1078457604</v>
+        <v>1126588397</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>3144252423</v>
+        <v>3117129509</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I13">
-        <v>3144252423</v>
+        <v>3117129509</v>
       </c>
       <c r="J13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" s="2">
-        <f>AVERAGE(5,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" s="2">
         <f>L13/K13*M13</f>
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O13" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P13" s="2">
         <f>N13*0.7+O13*0.3</f>
-        <v>5</v>
+        <v>3.59</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13" s="2">
-        <v>4.8571428571428568</v>
+        <v>5</v>
       </c>
       <c r="T13" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U13" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>4.6190476190476195</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="V13" s="2">
         <f>N13*0.7+U13*0.3</f>
-        <v>4.8857142857142861</v>
+        <v>3.2399999999999998</v>
       </c>
       <c r="W13" s="2">
         <f>V13*0.7+U13*0.3</f>
-        <v>4.805714285714286</v>
+        <v>3.2679999999999998</v>
       </c>
       <c r="X13" s="2">
         <f>AVERAGE(P13,W13)</f>
-        <v>4.902857142857143</v>
+        <v>3.4289999999999998</v>
       </c>
       <c r="Y13" s="2">
         <f>AVERAGE(X13,AA13)</f>
-        <v>4.9014285714285712</v>
+        <v>3.9645000000000001</v>
       </c>
       <c r="Z13" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>4.9021428571428576</v>
+        <v>3.6967499999999998</v>
       </c>
       <c r="AA13" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="AB13" s="2">
         <v>4.7</v>
@@ -3073,15 +3104,15 @@
         <v>4.5</v>
       </c>
       <c r="AD13" s="2">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AE13" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC13*0.15+AD13*0.2</f>
-        <v>4.6899999999999995</v>
+        <v>4.3699999999999992</v>
       </c>
       <c r="AF13" s="2">
         <f>AVERAGE(P13,W13,Z13,AE13)</f>
-        <v>4.8494642857142853</v>
+        <v>3.7311874999999994</v>
       </c>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3096,92 +3127,91 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2210940</v>
+        <v>2210166</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14">
-        <v>1005784498</v>
+        <v>1109920277</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G14">
-        <v>3005919525</v>
+        <v>3133688323</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I14">
-        <v>3005919525</v>
+        <v>3133688323</v>
       </c>
       <c r="J14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M14" s="2">
-        <f>AVERAGE(5,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" s="2">
         <f>L14/K14*M14</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P14" s="2">
         <f>N14*0.7+O14*0.3</f>
-        <v>5</v>
+        <v>4.1499999999999995</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="S14" s="2">
-        <v>4.7142857142857144</v>
+        <v>4.75</v>
       </c>
       <c r="T14" s="2">
         <v>4</v>
       </c>
       <c r="U14" s="2">
         <f>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</f>
-        <v>3.9047619047619051</v>
+        <v>3.4166666666666665</v>
       </c>
       <c r="V14" s="2">
         <f>N14*0.7+U14*0.3</f>
-        <v>4.6714285714285717</v>
+        <v>3.8249999999999997</v>
       </c>
       <c r="W14" s="2">
         <f>V14*0.7+U14*0.3</f>
-        <v>4.4414285714285713</v>
+        <v>3.7024999999999997</v>
       </c>
       <c r="X14" s="2">
         <f>AVERAGE(P14,W14)</f>
-        <v>4.7207142857142852</v>
+        <v>3.9262499999999996</v>
       </c>
       <c r="Y14" s="2">
         <f>AVERAGE(X14,AA14)</f>
-        <v>4.8103571428571428</v>
+        <v>4.2131249999999998</v>
       </c>
       <c r="Z14" s="2">
         <f>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</f>
-        <v>4.765535714285714</v>
+        <v>4.0696874999999997</v>
       </c>
       <c r="AA14" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="AB14" s="2">
         <v>4.7</v>
@@ -3190,15 +3220,15 @@
         <v>4.5</v>
       </c>
       <c r="AD14" s="2">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AE14" s="2">
         <f>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC14*0.15+AD14*0.2</f>
-        <v>4.6899999999999995</v>
+        <v>4.3699999999999992</v>
       </c>
       <c r="AF14" s="2">
         <f>AVERAGE(P14,W14,Z14,AE14)</f>
-        <v>4.7242410714285707</v>
+        <v>4.0730468749999993</v>
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>

--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\oicampo\Documents\GitHub\oicampo-uao.github.io\academics\DB2\2025-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D7F3CF-37E9-4C15-87BE-A4710F88A7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grupo" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grupo!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -341,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -957,93 +958,50 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1235,16 +1193,59 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1260,62 +1261,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AF14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="36">
-  <autoFilter ref="A1:AF14"/>
-  <sortState ref="A2:AF14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AF14" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:AF14" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="GUERRERO PEJENDINO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF14">
     <sortCondition ref="B1:B14"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="1" name="CODIGO"/>
-    <tableColumn id="2" name="APELLIDOS"/>
-    <tableColumn id="3" name="NOMBRES"/>
-    <tableColumn id="4" name="PLAN"/>
-    <tableColumn id="5" name="DOC_IDENTIDAD"/>
-    <tableColumn id="6" name="CIUDAD"/>
-    <tableColumn id="7" name="CELULAR"/>
-    <tableColumn id="8" name="CORREO_UAO"/>
-    <tableColumn id="9" name="TEL_OFI"/>
-    <tableColumn id="10" name="Grupo" dataDxfId="35"/>
-    <tableColumn id="11" name="TAC" dataDxfId="34"/>
-    <tableColumn id="12" name="TC" dataDxfId="33"/>
-    <tableColumn id="13" name="QT" dataDxfId="32"/>
-    <tableColumn id="14" name="FC" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CODIGO"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="APELLIDOS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOMBRES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PLAN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DOC_IDENTIDAD"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CIUDAD"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CELULAR"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CORREO_UAO"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="TEL_OFI"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Grupo" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="TAC" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TC" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="QT" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="FC" dataDxfId="30">
       <calculatedColumnFormula>L2/K2*M2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="FVL" dataDxfId="30"/>
-    <tableColumn id="16" name="Nota 1" dataDxfId="29">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="FVL" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Nota 1" dataDxfId="28">
       <calculatedColumnFormula>N2*0.7+O2*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="CORTE 2" dataDxfId="28"/>
-    <tableColumn id="20" name="PREG" dataDxfId="27"/>
-    <tableColumn id="19" name="PAR" dataDxfId="26"/>
-    <tableColumn id="23" name="PRES" dataDxfId="25"/>
-    <tableColumn id="25" name="PROM" dataDxfId="24">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="CORTE 2" dataDxfId="27"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="PREG" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="PAR" dataDxfId="25"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="PRES" dataDxfId="24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="PROM" dataDxfId="23">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[PREG]:[PRES]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="FC_" dataDxfId="23">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="FC_" dataDxfId="22">
       <calculatedColumnFormula>N2*0.7+U2*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Nota 2" dataDxfId="10">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Nota 2" dataDxfId="21">
       <calculatedColumnFormula>V2*0.7+U2*0.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="FC2" dataDxfId="4">
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="FC2" dataDxfId="20">
       <calculatedColumnFormula>AVERAGE(P2,W2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="QT2" dataDxfId="3">
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="QT2" dataDxfId="19">
       <calculatedColumnFormula>AVERAGE(X2,AA2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Nota 3" dataDxfId="2">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Nota 3" dataDxfId="18">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[FC2]:[QT2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Criterios ABET" dataDxfId="9"/>
-    <tableColumn id="27" name="Check list" dataDxfId="8"/>
-    <tableColumn id="28" name="Pitch" dataDxfId="7"/>
-    <tableColumn id="29" name="Concepto FVL" dataDxfId="6"/>
-    <tableColumn id="32" name="Nota 4" dataDxfId="1">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Criterios ABET" dataDxfId="17"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Check list" dataDxfId="16"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Pitch" dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Concepto FVL" dataDxfId="14"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Nota 4" dataDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[Criterios ABET]]*0.6+Table1[[#This Row],[Check list]]*0.05+AC2*0.15+AD2*0.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Definitiva" dataDxfId="0">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Definitiva" dataDxfId="12">
       <calculatedColumnFormula>AVERAGE(P2,W2,Z2,AE2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1324,20 +1331,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="AK2:AL8" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="AK2:AL8" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <tableColumns count="2">
-    <tableColumn id="1" name="Factor" dataDxfId="18"/>
-    <tableColumn id="2" name="Explicación" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Factor" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Explicación" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="AK11:AL17" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table24" displayName="Table24" ref="AK11:AL17" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" name="Factor" dataDxfId="12"/>
-    <tableColumn id="2" name="Explicación" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Factor" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Explicación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1605,14 +1612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -1742,7 +1749,7 @@
       <c r="AI1" s="12"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2210787</v>
       </c>
@@ -1783,14 +1790,14 @@
         <v>4</v>
       </c>
       <c r="N2" s="2">
-        <f>L2/K2*M2</f>
+        <f t="shared" ref="N2:N14" si="0">L2/K2*M2</f>
         <v>4</v>
       </c>
       <c r="O2" s="2">
         <v>4</v>
       </c>
       <c r="P2" s="2">
-        <f>N2*0.7+O2*0.3</f>
+        <f t="shared" ref="P2:P14" si="1">N2*0.7+O2*0.3</f>
         <v>4</v>
       </c>
       <c r="Q2" s="2"/>
@@ -1811,7 +1818,7 @@
         <v>3.024242424242424</v>
       </c>
       <c r="W2" s="2">
-        <f>V2*0.7+U2*0.3</f>
+        <f t="shared" ref="W2:W14" si="2">V2*0.7+U2*0.3</f>
         <v>2.8987878787878785</v>
       </c>
       <c r="X2" s="2">
@@ -1819,7 +1826,7 @@
         <v>3.4493939393939392</v>
       </c>
       <c r="Y2" s="2">
-        <f>AVERAGE(X2,AA2)</f>
+        <f t="shared" ref="Y2:Y14" si="3">AVERAGE(X2,AA2)</f>
         <v>3.8746969696969695</v>
       </c>
       <c r="Z2" s="2">
@@ -1843,7 +1850,7 @@
         <v>4.0205000000000002</v>
       </c>
       <c r="AF2" s="2">
-        <f>AVERAGE(P2,W2,Z2,AE2)</f>
+        <f t="shared" ref="AF2:AF14" si="4">AVERAGE(P2,W2,Z2,AE2)</f>
         <v>3.6453333333333333</v>
       </c>
       <c r="AG2" s="2"/>
@@ -1857,7 +1864,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2175459</v>
       </c>
@@ -1899,14 +1906,14 @@
         <v>2.5</v>
       </c>
       <c r="N3" s="2">
-        <f>L3/K3*M3</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="O3" s="2">
         <v>4</v>
       </c>
       <c r="P3" s="2">
-        <f>N3*0.7+O3*0.3</f>
+        <f t="shared" si="1"/>
         <v>2.0750000000000002</v>
       </c>
       <c r="Q3" s="2"/>
@@ -1928,14 +1935,14 @@
         <v>0.875</v>
       </c>
       <c r="W3" s="2">
-        <f>V3*0.7+U3*0.3</f>
+        <f t="shared" si="2"/>
         <v>0.61249999999999993</v>
       </c>
       <c r="X3" s="2">
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <f>AVERAGE(X3,AA3)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z3" s="2">
@@ -1959,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <f>AVERAGE(P3,W3,Z3,AE3)</f>
+        <f t="shared" si="4"/>
         <v>0.671875</v>
       </c>
       <c r="AG3" s="2"/>
@@ -1973,7 +1980,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2150912</v>
       </c>
@@ -2015,14 +2022,14 @@
         <v>3.8333333333333335</v>
       </c>
       <c r="N4" s="2">
-        <f>L4/K4*M4</f>
+        <f t="shared" si="0"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="O4" s="2">
         <v>4</v>
       </c>
       <c r="P4" s="2">
-        <f>N4*0.7+O4*0.3</f>
+        <f t="shared" si="1"/>
         <v>3.8833333333333329</v>
       </c>
       <c r="Q4" s="2"/>
@@ -2043,15 +2050,15 @@
         <v>3.8227272727272728</v>
       </c>
       <c r="W4" s="2">
-        <f>V4*0.7+U4*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.8213636363636363</v>
       </c>
       <c r="X4" s="2">
-        <f>AVERAGE(P4,W4)</f>
+        <f t="shared" ref="X4:X14" si="5">AVERAGE(P4,W4)</f>
         <v>3.8523484848484846</v>
       </c>
       <c r="Y4" s="2">
-        <f>AVERAGE(X4,AA4)</f>
+        <f t="shared" si="3"/>
         <v>4.0761742424242424</v>
       </c>
       <c r="Z4" s="2">
@@ -2075,7 +2082,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="AF4" s="2">
-        <f>AVERAGE(P4,W4,Z4,AE4)</f>
+        <f t="shared" si="4"/>
         <v>3.922239583333333</v>
       </c>
       <c r="AG4" s="2"/>
@@ -2089,7 +2096,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2175635</v>
       </c>
@@ -2130,14 +2137,14 @@
         <v>4</v>
       </c>
       <c r="N5" s="2">
-        <f>L5/K5*M5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O5" s="2">
         <v>4.5</v>
       </c>
       <c r="P5" s="2">
-        <f>N5*0.7+O5*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.1499999999999995</v>
       </c>
       <c r="Q5" s="2"/>
@@ -2155,19 +2162,19 @@
         <v>4.625</v>
       </c>
       <c r="V5" s="2">
-        <f>N5*0.7+U5*0.3</f>
+        <f t="shared" ref="V5:V11" si="6">N5*0.7+U5*0.3</f>
         <v>4.1875</v>
       </c>
       <c r="W5" s="2">
-        <f>V5*0.7+U5*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.3187499999999996</v>
       </c>
       <c r="X5" s="2">
-        <f>AVERAGE(P5,W5)</f>
+        <f t="shared" si="5"/>
         <v>4.234375</v>
       </c>
       <c r="Y5" s="2">
-        <f>AVERAGE(X5,AA5)</f>
+        <f t="shared" si="3"/>
         <v>4.3671875</v>
       </c>
       <c r="Z5" s="2">
@@ -2191,7 +2198,7 @@
         <v>4.3699999999999992</v>
       </c>
       <c r="AF5" s="2">
-        <f>AVERAGE(P5,W5,Z5,AE5)</f>
+        <f t="shared" si="4"/>
         <v>4.2848828124999994</v>
       </c>
       <c r="AG5" s="2"/>
@@ -2205,7 +2212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2210274</v>
       </c>
@@ -2247,14 +2254,14 @@
         <v>4</v>
       </c>
       <c r="N6" s="2">
-        <f>L6/K6*M6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O6" s="2">
         <v>5</v>
       </c>
       <c r="P6" s="2">
-        <f>N6*0.7+O6*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
       <c r="Q6" s="2"/>
@@ -2272,19 +2279,19 @@
         <v>4.5714285714285721</v>
       </c>
       <c r="V6" s="2">
-        <f>N6*0.7+U6*0.3</f>
+        <f t="shared" si="6"/>
         <v>4.1714285714285717</v>
       </c>
       <c r="W6" s="2">
-        <f>V6*0.7+U6*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.2914285714285718</v>
       </c>
       <c r="X6" s="2">
-        <f>AVERAGE(P6,W6)</f>
+        <f t="shared" si="5"/>
         <v>4.2957142857142863</v>
       </c>
       <c r="Y6" s="2">
-        <f>AVERAGE(X6,AA6)</f>
+        <f t="shared" si="3"/>
         <v>4.5978571428571433</v>
       </c>
       <c r="Z6" s="2">
@@ -2308,7 +2315,7 @@
         <v>4.6899999999999995</v>
       </c>
       <c r="AF6" s="2">
-        <f>AVERAGE(P6,W6,Z6,AE6)</f>
+        <f t="shared" si="4"/>
         <v>4.4320535714285718</v>
       </c>
       <c r="AG6" s="2"/>
@@ -2322,7 +2329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2206294</v>
       </c>
@@ -2363,14 +2370,14 @@
         <v>4</v>
       </c>
       <c r="N7" s="2">
-        <f>L7/K7*M7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="O7" s="2">
         <v>4.5</v>
       </c>
       <c r="P7" s="2">
-        <f>N7*0.7+O7*0.3</f>
+        <f t="shared" si="1"/>
         <v>3.4499999999999993</v>
       </c>
       <c r="Q7" s="2"/>
@@ -2388,19 +2395,19 @@
         <v>4.291666666666667</v>
       </c>
       <c r="V7" s="2">
-        <f>N7*0.7+U7*0.3</f>
+        <f t="shared" si="6"/>
         <v>3.3874999999999997</v>
       </c>
       <c r="W7" s="2">
-        <f>V7*0.7+U7*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.6587499999999999</v>
       </c>
       <c r="X7" s="2">
-        <f>AVERAGE(P7,W7)</f>
+        <f t="shared" si="5"/>
         <v>3.5543749999999994</v>
       </c>
       <c r="Y7" s="2">
-        <f>AVERAGE(X7,AA7)</f>
+        <f t="shared" si="3"/>
         <v>4.0271875000000001</v>
       </c>
       <c r="Z7" s="2">
@@ -2424,7 +2431,7 @@
         <v>4.3699999999999992</v>
       </c>
       <c r="AF7" s="2">
-        <f>AVERAGE(P7,W7,Z7,AE7)</f>
+        <f t="shared" si="4"/>
         <v>3.8173828124999996</v>
       </c>
       <c r="AG7" s="2"/>
@@ -2480,14 +2487,14 @@
         <v>4.75</v>
       </c>
       <c r="N8" s="2">
-        <f>L8/K8*M8</f>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
       <c r="O8" s="2">
         <v>5</v>
       </c>
       <c r="P8" s="2">
-        <f>N8*0.7+O8*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.8249999999999993</v>
       </c>
       <c r="Q8" s="2"/>
@@ -2505,19 +2512,19 @@
         <v>4.9523809523809526</v>
       </c>
       <c r="V8" s="2">
-        <f>N8*0.7+U8*0.3</f>
+        <f t="shared" si="6"/>
         <v>4.8107142857142851</v>
       </c>
       <c r="W8" s="2">
-        <f>V8*0.7+U8*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.8532142857142855</v>
       </c>
       <c r="X8" s="2">
-        <f>AVERAGE(P8,W8)</f>
+        <f t="shared" si="5"/>
         <v>4.8391071428571424</v>
       </c>
       <c r="Y8" s="2">
-        <f>AVERAGE(X8,AA8)</f>
+        <f t="shared" si="3"/>
         <v>4.8695535714285718</v>
       </c>
       <c r="Z8" s="2">
@@ -2541,7 +2548,7 @@
         <v>4.6899999999999995</v>
       </c>
       <c r="AF8" s="2">
-        <f>AVERAGE(P8,W8,Z8,AE8)</f>
+        <f t="shared" si="4"/>
         <v>4.8056361607142852</v>
       </c>
       <c r="AG8" s="2"/>
@@ -2555,7 +2562,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2200006</v>
       </c>
@@ -2596,14 +2603,14 @@
         <v>4</v>
       </c>
       <c r="N9" s="2">
-        <f>L9/K9*M9</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O9" s="2">
         <v>4.5</v>
       </c>
       <c r="P9" s="2">
-        <f>N9*0.7+O9*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.1499999999999995</v>
       </c>
       <c r="Q9" s="2"/>
@@ -2621,19 +2628,19 @@
         <v>3.2916666666666665</v>
       </c>
       <c r="V9" s="2">
-        <f>N9*0.7+U9*0.3</f>
+        <f t="shared" si="6"/>
         <v>3.7874999999999996</v>
       </c>
       <c r="W9" s="2">
-        <f>V9*0.7+U9*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.6387499999999995</v>
       </c>
       <c r="X9" s="2">
-        <f>AVERAGE(P9,W9)</f>
+        <f t="shared" si="5"/>
         <v>3.8943749999999993</v>
       </c>
       <c r="Y9" s="2">
-        <f>AVERAGE(X9,AA9)</f>
+        <f t="shared" si="3"/>
         <v>4.1971875000000001</v>
       </c>
       <c r="Z9" s="2">
@@ -2657,7 +2664,7 @@
         <v>4.3699999999999992</v>
       </c>
       <c r="AF9" s="2">
-        <f>AVERAGE(P9,W9,Z9,AE9)</f>
+        <f t="shared" si="4"/>
         <v>4.0511328124999988</v>
       </c>
       <c r="AG9" s="2"/>
@@ -2665,7 +2672,7 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2211617</v>
       </c>
@@ -2707,14 +2714,14 @@
         <v>5</v>
       </c>
       <c r="N10" s="2">
-        <f>L10/K10*M10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O10" s="2">
         <v>5</v>
       </c>
       <c r="P10" s="2">
-        <f>N10*0.7+O10*0.3</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q10" s="2"/>
@@ -2732,19 +2739,19 @@
         <v>4.6190476190476195</v>
       </c>
       <c r="V10" s="2">
-        <f>N10*0.7+U10*0.3</f>
+        <f t="shared" si="6"/>
         <v>4.8857142857142861</v>
       </c>
       <c r="W10" s="2">
-        <f>V10*0.7+U10*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.805714285714286</v>
       </c>
       <c r="X10" s="2">
-        <f>AVERAGE(P10,W10)</f>
+        <f t="shared" si="5"/>
         <v>4.902857142857143</v>
       </c>
       <c r="Y10" s="2">
-        <f>AVERAGE(X10,AA10)</f>
+        <f t="shared" si="3"/>
         <v>4.9014285714285712</v>
       </c>
       <c r="Z10" s="2">
@@ -2768,7 +2775,7 @@
         <v>4.6899999999999995</v>
       </c>
       <c r="AF10" s="2">
-        <f>AVERAGE(P10,W10,Z10,AE10)</f>
+        <f t="shared" si="4"/>
         <v>4.8494642857142853</v>
       </c>
       <c r="AG10" s="2"/>
@@ -2776,7 +2783,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2210940</v>
       </c>
@@ -2818,14 +2825,14 @@
         <v>5</v>
       </c>
       <c r="N11" s="2">
-        <f>L11/K11*M11</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O11" s="2">
         <v>5</v>
       </c>
       <c r="P11" s="2">
-        <f>N11*0.7+O11*0.3</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q11" s="2"/>
@@ -2843,19 +2850,19 @@
         <v>3.9047619047619051</v>
       </c>
       <c r="V11" s="2">
-        <f>N11*0.7+U11*0.3</f>
+        <f t="shared" si="6"/>
         <v>4.6714285714285717</v>
       </c>
       <c r="W11" s="2">
-        <f>V11*0.7+U11*0.3</f>
+        <f t="shared" si="2"/>
         <v>4.4414285714285713</v>
       </c>
       <c r="X11" s="2">
-        <f>AVERAGE(P11,W11)</f>
+        <f t="shared" si="5"/>
         <v>4.7207142857142852</v>
       </c>
       <c r="Y11" s="2">
-        <f>AVERAGE(X11,AA11)</f>
+        <f t="shared" si="3"/>
         <v>4.8103571428571428</v>
       </c>
       <c r="Z11" s="2">
@@ -2879,7 +2886,7 @@
         <v>4.6899999999999995</v>
       </c>
       <c r="AF11" s="2">
-        <f>AVERAGE(P11,W11,Z11,AE11)</f>
+        <f t="shared" si="4"/>
         <v>4.7242410714285707</v>
       </c>
       <c r="AG11" s="2"/>
@@ -2893,7 +2900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2190393</v>
       </c>
@@ -2935,14 +2942,14 @@
         <v>4</v>
       </c>
       <c r="N12" s="2">
-        <f>L12/K12*M12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O12" s="2">
         <v>4</v>
       </c>
       <c r="P12" s="2">
-        <f>N12*0.7+O12*0.3</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q12" s="2"/>
@@ -2963,15 +2970,15 @@
         <v>3.7242424242424237</v>
       </c>
       <c r="W12" s="2">
-        <f>V12*0.7+U12*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.6887878787878785</v>
       </c>
       <c r="X12" s="2">
-        <f>AVERAGE(P12,W12)</f>
+        <f t="shared" si="5"/>
         <v>3.8443939393939393</v>
       </c>
       <c r="Y12" s="2">
-        <f>AVERAGE(X12,AA12)</f>
+        <f t="shared" si="3"/>
         <v>4.0721969696969698</v>
       </c>
       <c r="Z12" s="2">
@@ -2995,7 +3002,7 @@
         <v>4.0205000000000002</v>
       </c>
       <c r="AF12" s="2">
-        <f>AVERAGE(P12,W12,Z12,AE12)</f>
+        <f t="shared" si="4"/>
         <v>3.9168958333333332</v>
       </c>
       <c r="AG12" s="2"/>
@@ -3009,7 +3016,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2210078</v>
       </c>
@@ -3050,14 +3057,14 @@
         <v>4</v>
       </c>
       <c r="N13" s="2">
-        <f>L13/K13*M13</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
       <c r="O13" s="2">
         <v>4.5</v>
       </c>
       <c r="P13" s="2">
-        <f>N13*0.7+O13*0.3</f>
+        <f t="shared" si="1"/>
         <v>3.59</v>
       </c>
       <c r="Q13" s="2"/>
@@ -3079,15 +3086,15 @@
         <v>3.2399999999999998</v>
       </c>
       <c r="W13" s="2">
-        <f>V13*0.7+U13*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.2679999999999998</v>
       </c>
       <c r="X13" s="2">
-        <f>AVERAGE(P13,W13)</f>
+        <f t="shared" si="5"/>
         <v>3.4289999999999998</v>
       </c>
       <c r="Y13" s="2">
-        <f>AVERAGE(X13,AA13)</f>
+        <f t="shared" si="3"/>
         <v>3.9645000000000001</v>
       </c>
       <c r="Z13" s="2">
@@ -3111,7 +3118,7 @@
         <v>4.3699999999999992</v>
       </c>
       <c r="AF13" s="2">
-        <f>AVERAGE(P13,W13,Z13,AE13)</f>
+        <f t="shared" si="4"/>
         <v>3.7311874999999994</v>
       </c>
       <c r="AG13" s="2"/>
@@ -3125,7 +3132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2210166</v>
       </c>
@@ -3166,14 +3173,14 @@
         <v>4</v>
       </c>
       <c r="N14" s="2">
-        <f>L14/K14*M14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O14" s="2">
         <v>4.5</v>
       </c>
       <c r="P14" s="2">
-        <f>N14*0.7+O14*0.3</f>
+        <f t="shared" si="1"/>
         <v>4.1499999999999995</v>
       </c>
       <c r="Q14" s="2"/>
@@ -3195,15 +3202,15 @@
         <v>3.8249999999999997</v>
       </c>
       <c r="W14" s="2">
-        <f>V14*0.7+U14*0.3</f>
+        <f t="shared" si="2"/>
         <v>3.7024999999999997</v>
       </c>
       <c r="X14" s="2">
-        <f>AVERAGE(P14,W14)</f>
+        <f t="shared" si="5"/>
         <v>3.9262499999999996</v>
       </c>
       <c r="Y14" s="2">
-        <f>AVERAGE(X14,AA14)</f>
+        <f t="shared" si="3"/>
         <v>4.2131249999999998</v>
       </c>
       <c r="Z14" s="2">
@@ -3227,7 +3234,7 @@
         <v>4.3699999999999992</v>
       </c>
       <c r="AF14" s="2">
-        <f>AVERAGE(P14,W14,Z14,AE14)</f>
+        <f t="shared" si="4"/>
         <v>4.0730468749999993</v>
       </c>
       <c r="AG14" s="2"/>
@@ -3278,14 +3285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>

--- a/academics/DB2/2025-1/DB2 2025-1.xlsx
+++ b/academics/DB2/2025-1/DB2 2025-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UAO\oicampo-uao.github.io\academics\DB2\2025-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D7F3CF-37E9-4C15-87BE-A4710F88A7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B246A02B-88A4-4DED-94A5-656435AF0D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,13 +1262,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AF14" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:AF14" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="GUERRERO PEJENDINO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AF14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF14">
     <sortCondition ref="B1:B14"/>
   </sortState>
@@ -1749,7 +1743,7 @@
       <c r="AI1" s="12"/>
       <c r="AJ1" s="14"/>
     </row>
-    <row r="2" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2210787</v>
       </c>
@@ -1864,7 +1858,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2175459</v>
       </c>
@@ -1980,7 +1974,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2150912</v>
       </c>
@@ -2096,7 +2090,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2175635</v>
       </c>
@@ -2212,7 +2206,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2210274</v>
       </c>
@@ -2329,7 +2323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2206294</v>
       </c>
@@ -2562,7 +2556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2200006</v>
       </c>
@@ -2672,7 +2666,7 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2211617</v>
       </c>
@@ -2783,7 +2777,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2210940</v>
       </c>
@@ -2900,7 +2894,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2190393</v>
       </c>
@@ -3016,7 +3010,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2210078</v>
       </c>
@@ -3132,7 +3126,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2210166</v>
       </c>
